--- a/Assets/ExperimentData/ExperimentQuestions/Patterns.xlsx
+++ b/Assets/ExperimentData/ExperimentQuestions/Patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe Liu\Documents\Joe\Unity\VisualPattern-LimitedVision-Git\Assets\ExperimentData\ExperimentQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C540A17-A50E-411B-A764-940DD3D337AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B13D972-C5E2-4001-B1C8-B786A160C3A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10365" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
+    <workbookView xWindow="-28920" yWindow="10363" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +94,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +125,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -674,10 +686,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -790,13 +803,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,8 +839,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1146,14 +1177,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1203,7 +1234,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1253,7 +1284,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1303,7 +1334,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1353,7 +1384,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1403,7 +1434,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1453,7 +1484,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1503,7 +1534,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1553,7 +1584,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1603,7 +1634,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1653,7 +1684,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1703,7 +1734,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1753,7 +1784,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1803,7 +1834,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1853,7 +1884,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1903,7 +1934,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1953,7 +1984,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2003,7 +2034,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2053,7 +2084,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2103,7 +2134,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2153,7 +2184,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2203,7 +2234,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2253,7 +2284,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2303,7 +2334,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2353,7 +2384,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2403,7 +2434,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2453,7 +2484,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2503,7 +2534,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2553,7 +2584,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2603,7 +2634,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2667,15 +2698,15 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -2736,7 +2767,7 @@
       <c r="AV1" s="83"/>
       <c r="AW1" s="84"/>
     </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
         <v>13</v>
       </c>
@@ -2789,7 +2820,7 @@
       <c r="AV2" s="94"/>
       <c r="AW2" s="95"/>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
@@ -2840,7 +2871,7 @@
       <c r="AV3" s="97"/>
       <c r="AW3" s="98"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
@@ -2891,7 +2922,7 @@
       <c r="AV4" s="100"/>
       <c r="AW4" s="101"/>
     </row>
-    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
         <v>14</v>
       </c>
@@ -2944,7 +2975,7 @@
       <c r="AV5" s="32"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
@@ -2995,7 +3026,7 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22"/>
       <c r="C7" s="31"/>
@@ -3046,7 +3077,7 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
         <v>14</v>
       </c>
@@ -3099,7 +3130,7 @@
       <c r="AV8" s="32"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -3150,7 +3181,7 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="22"/>
       <c r="C10" s="31"/>
@@ -3201,7 +3232,7 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
         <v>14</v>
       </c>
@@ -3254,7 +3285,7 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
@@ -3305,7 +3336,7 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
@@ -3356,7 +3387,7 @@
       <c r="AV13" s="31"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
         <v>14</v>
       </c>
@@ -3409,7 +3440,7 @@
       <c r="AV14" s="94"/>
       <c r="AW14" s="95"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -3460,7 +3491,7 @@
       <c r="AV15" s="97"/>
       <c r="AW15" s="98"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -3511,7 +3542,7 @@
       <c r="AV16" s="100"/>
       <c r="AW16" s="101"/>
     </row>
-    <row r="17" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="88">
         <v>15</v>
       </c>
@@ -3564,7 +3595,7 @@
       <c r="AV17" s="32"/>
       <c r="AW17" s="19"/>
     </row>
-    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="89"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
@@ -3615,7 +3646,7 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="89"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
@@ -3666,7 +3697,7 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
         <v>15</v>
       </c>
@@ -3719,7 +3750,7 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
@@ -3770,7 +3801,7 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -3821,7 +3852,7 @@
       <c r="AV22" s="31"/>
       <c r="AW22" s="24"/>
     </row>
-    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="89">
         <v>17</v>
       </c>
@@ -3874,7 +3905,7 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="89"/>
       <c r="B24" s="20"/>
       <c r="C24" s="33"/>
@@ -3925,7 +3956,7 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="89"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -3976,7 +4007,7 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="89">
         <v>17</v>
       </c>
@@ -4029,7 +4060,7 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="89"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
@@ -4080,7 +4111,7 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="89"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -4131,7 +4162,7 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="89">
         <v>18</v>
       </c>
@@ -4184,7 +4215,7 @@
       <c r="AV29" s="32"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="89"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
@@ -4235,7 +4266,7 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="89"/>
       <c r="B31" s="22"/>
       <c r="C31" s="31"/>
@@ -4286,15 +4317,9 @@
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="Z2:AW4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
@@ -4305,6 +4330,12 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="Z2:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4319,15 +4350,15 @@
       <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -4388,7 +4419,7 @@
       <c r="AV1" s="83"/>
       <c r="AW1" s="84"/>
     </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
         <v>13</v>
       </c>
@@ -4489,7 +4520,7 @@
       <c r="AV2" s="94"/>
       <c r="AW2" s="95"/>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20">
         <v>13</v>
@@ -4588,7 +4619,7 @@
       <c r="AV3" s="97"/>
       <c r="AW3" s="98"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22">
         <v>25</v>
@@ -4687,7 +4718,7 @@
       <c r="AV4" s="100"/>
       <c r="AW4" s="101"/>
     </row>
-    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
         <v>14</v>
       </c>
@@ -4836,7 +4867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20">
         <v>13</v>
@@ -4983,7 +5014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22">
         <v>25</v>
@@ -5130,7 +5161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
         <v>14</v>
       </c>
@@ -5279,7 +5310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20">
         <v>13</v>
@@ -5426,7 +5457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="22">
         <v>25</v>
@@ -5573,7 +5604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
         <v>14</v>
       </c>
@@ -5722,7 +5753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20">
         <v>13</v>
@@ -5869,7 +5900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22">
         <v>25</v>
@@ -6016,7 +6047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
         <v>14</v>
       </c>
@@ -6119,7 +6150,7 @@
       <c r="AV14" s="94"/>
       <c r="AW14" s="95"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20">
         <v>13</v>
@@ -6218,7 +6249,7 @@
       <c r="AV15" s="97"/>
       <c r="AW15" s="98"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22">
         <v>25</v>
@@ -6317,7 +6348,7 @@
       <c r="AV16" s="100"/>
       <c r="AW16" s="101"/>
     </row>
-    <row r="17" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="88">
         <v>15</v>
       </c>
@@ -6466,7 +6497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="89"/>
       <c r="B18" s="20">
         <v>13</v>
@@ -6613,7 +6644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="89"/>
       <c r="B19" s="22">
         <v>25</v>
@@ -6760,7 +6791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
         <v>15</v>
       </c>
@@ -6909,7 +6940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20">
         <v>13</v>
@@ -7056,7 +7087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22">
         <v>25</v>
@@ -7203,7 +7234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="89">
         <v>17</v>
       </c>
@@ -7352,7 +7383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="89"/>
       <c r="B24" s="20">
         <v>13</v>
@@ -7499,7 +7530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="89"/>
       <c r="B25" s="22">
         <v>25</v>
@@ -7646,7 +7677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="89">
         <v>17</v>
       </c>
@@ -7795,7 +7826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="89"/>
       <c r="B27" s="20">
         <v>13</v>
@@ -7942,7 +7973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="89"/>
       <c r="B28" s="22">
         <v>25</v>
@@ -8089,7 +8120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="89">
         <v>18</v>
       </c>
@@ -8238,7 +8269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="89"/>
       <c r="B30" s="20">
         <v>13</v>
@@ -8385,7 +8416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="89"/>
       <c r="B31" s="22">
         <v>25</v>
@@ -8532,14 +8563,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -8551,6 +8577,11 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8564,14 +8595,14 @@
       <selection activeCell="H13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8621,7 +8652,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8671,7 +8702,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -8721,7 +8752,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8771,7 +8802,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8821,7 +8852,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8871,7 +8902,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -8921,7 +8952,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8971,7 +9002,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -9021,7 +9052,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9071,7 +9102,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9121,7 +9152,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -9171,7 +9202,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9221,7 +9252,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9271,7 +9302,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -9321,7 +9352,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9371,7 +9402,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9421,7 +9452,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -9471,7 +9502,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -9521,7 +9552,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9571,7 +9602,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -9621,7 +9652,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -9671,7 +9702,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9721,7 +9752,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -9771,7 +9802,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -9821,7 +9852,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9871,7 +9902,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -9921,7 +9952,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -9971,7 +10002,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10021,7 +10052,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -10085,14 +10116,14 @@
       <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="13" width="5.69140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -10111,7 +10142,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
         <v>8</v>
       </c>
@@ -10128,7 +10159,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
@@ -10143,7 +10174,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
@@ -10158,7 +10189,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
         <v>8</v>
       </c>
@@ -10174,7 +10205,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
@@ -10188,7 +10219,7 @@
       <c r="K6" s="16"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -10203,7 +10234,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
         <v>8</v>
       </c>
@@ -10220,7 +10251,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -10235,7 +10266,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
@@ -10249,7 +10280,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
         <v>8</v>
       </c>
@@ -10266,7 +10297,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="70"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
@@ -10281,7 +10312,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22"/>
       <c r="C13" s="66"/>
@@ -10296,7 +10327,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
         <v>8</v>
       </c>
@@ -10313,7 +10344,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -10328,7 +10359,7 @@
       <c r="L15" s="33"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -10343,7 +10374,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81">
         <v>8</v>
       </c>
@@ -10360,7 +10391,7 @@
       <c r="L17" s="59"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
@@ -10375,7 +10406,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -10390,7 +10421,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="72"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
         <v>8</v>
       </c>
@@ -10407,7 +10438,7 @@
       <c r="L20" s="32"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
@@ -10422,7 +10453,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -10437,7 +10468,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81">
         <v>8</v>
       </c>
@@ -10454,7 +10485,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
@@ -10469,7 +10500,7 @@
       <c r="L24" s="58"/>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -10484,7 +10515,7 @@
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81">
         <v>8</v>
       </c>
@@ -10501,7 +10532,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
@@ -10516,7 +10547,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -10531,7 +10562,7 @@
       <c r="L28" s="31"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81">
         <v>8</v>
       </c>
@@ -10546,7 +10577,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
@@ -10561,7 +10592,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -10576,9 +10607,12 @@
       <c r="L31" s="23"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A8:A10"/>
@@ -10587,9 +10621,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10599,19 +10630,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56385B8E-E385-45BF-9090-C58948711B3F}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="13" width="5.69140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -10630,7 +10661,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
         <v>8</v>
       </c>
@@ -10671,7 +10702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20">
         <v>13</v>
@@ -10710,7 +10741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22">
         <v>25</v>
@@ -10749,7 +10780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
         <v>8</v>
       </c>
@@ -10790,7 +10821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20">
         <v>13</v>
@@ -10829,7 +10860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22">
         <v>25</v>
@@ -10868,7 +10899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
         <v>8</v>
       </c>
@@ -10909,7 +10940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20">
         <v>13</v>
@@ -10948,7 +10979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="31">
         <v>25</v>
@@ -10987,7 +11018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
         <v>8</v>
       </c>
@@ -11028,7 +11059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20">
         <v>13</v>
@@ -11067,7 +11098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22">
         <v>25</v>
@@ -11106,7 +11137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
         <v>8</v>
       </c>
@@ -11147,7 +11178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20">
         <v>13</v>
@@ -11186,7 +11217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22">
         <v>25</v>
@@ -11225,7 +11256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81">
         <v>8</v>
       </c>
@@ -11266,7 +11297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="20">
         <v>13</v>
@@ -11305,7 +11336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81"/>
       <c r="B19" s="22">
         <v>25</v>
@@ -11344,7 +11375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
         <v>8</v>
       </c>
@@ -11385,7 +11416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20">
         <v>13</v>
@@ -11424,7 +11455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22">
         <v>25</v>
@@ -11463,7 +11494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81">
         <v>8</v>
       </c>
@@ -11504,7 +11535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="20">
         <v>13</v>
@@ -11543,7 +11574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="22">
         <v>25</v>
@@ -11582,7 +11613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81">
         <v>8</v>
       </c>
@@ -11623,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="20">
         <v>13</v>
@@ -11662,7 +11693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="22">
         <v>25</v>
@@ -11701,7 +11732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81">
         <v>8</v>
       </c>
@@ -11742,7 +11773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="20">
         <v>13</v>
@@ -11781,7 +11812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81"/>
       <c r="B31" s="22">
         <v>25</v>
@@ -11820,20 +11851,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11844,19 +11875,19 @@
   <dimension ref="A1:AW32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AW31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.53515625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -11917,9 +11948,9 @@
       <c r="AV1" s="86"/>
       <c r="AW1" s="87"/>
     </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -11970,7 +12001,7 @@
       <c r="AV2" s="47"/>
       <c r="AW2" s="48"/>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
@@ -12021,7 +12052,7 @@
       <c r="AV3" s="54"/>
       <c r="AW3" s="50"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
@@ -12072,9 +12103,9 @@
       <c r="AV4" s="52"/>
       <c r="AW4" s="53"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
@@ -12125,7 +12156,7 @@
       <c r="AV5" s="29"/>
       <c r="AW5" s="30"/>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
@@ -12172,7 +12203,7 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -12223,9 +12254,9 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -12234,16 +12265,14 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
       <c r="N8" s="17"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="18"/>
+      <c r="R8" s="32"/>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
@@ -12274,7 +12303,7 @@
       <c r="AU8" s="18"/>
       <c r="AW8" s="32"/>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -12325,7 +12354,7 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
@@ -12356,16 +12385,14 @@
       <c r="AD10" s="23"/>
       <c r="AE10" s="23"/>
       <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="31"/>
+      <c r="AG10" s="31"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="24"/>
       <c r="AL10" s="22"/>
       <c r="AM10" s="23"/>
       <c r="AN10" s="23"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="23"/>
+      <c r="AP10" s="31"/>
       <c r="AQ10" s="23"/>
       <c r="AR10" s="23"/>
       <c r="AS10" s="23"/>
@@ -12374,9 +12401,9 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="32"/>
@@ -12385,16 +12412,14 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
       <c r="N11" s="17"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
@@ -12427,7 +12452,7 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
@@ -12478,7 +12503,7 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
@@ -12511,16 +12536,14 @@
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="44"/>
+      <c r="AH13" s="43"/>
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
       <c r="AK13" s="45"/>
       <c r="AL13" s="42"/>
       <c r="AM13" s="44"/>
       <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="43"/>
+      <c r="AO13" s="43"/>
       <c r="AQ13" s="44"/>
       <c r="AR13" s="44"/>
       <c r="AS13" s="44"/>
@@ -12529,9 +12552,9 @@
       <c r="AV13" s="43"/>
       <c r="AW13" s="45"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -12582,7 +12605,7 @@
       <c r="AV14" s="47"/>
       <c r="AW14" s="48"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -12633,7 +12656,7 @@
       <c r="AV15" s="41"/>
       <c r="AW15" s="50"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -12684,9 +12707,9 @@
       <c r="AV16" s="52"/>
       <c r="AW16" s="53"/>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -12737,7 +12760,7 @@
       <c r="AV17" s="29"/>
       <c r="AW17" s="30"/>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
@@ -12788,7 +12811,7 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -12839,12 +12862,12 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
-        <v>10</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -12865,8 +12888,8 @@
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="70"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="62"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
@@ -12892,7 +12915,7 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
@@ -12943,7 +12966,7 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -12969,8 +12992,8 @@
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="24"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="23"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="23"/>
@@ -12991,12 +13014,12 @@
       <c r="AS22" s="23"/>
       <c r="AT22" s="23"/>
       <c r="AU22" s="23"/>
-      <c r="AV22" s="23"/>
-      <c r="AW22" s="72"/>
-    </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="102"/>
+    </row>
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -13047,7 +13070,7 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
@@ -13098,7 +13121,7 @@
       <c r="AV24" s="16"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -13149,9 +13172,9 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -13186,12 +13209,10 @@
       <c r="AF26" s="32"/>
       <c r="AG26" s="18"/>
       <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="32"/>
+      <c r="AI26" s="32"/>
       <c r="AK26" s="19"/>
       <c r="AL26" s="17"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="18"/>
+      <c r="AN26" s="32"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
       <c r="AQ26" s="32"/>
@@ -13202,7 +13223,7 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
@@ -13253,7 +13274,7 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -13264,12 +13285,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="31"/>
+      <c r="K28" s="31"/>
       <c r="M28" s="24"/>
       <c r="N28" s="27"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="23"/>
+      <c r="P28" s="31"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
       <c r="S28" s="31"/>
@@ -13304,13 +13323,13 @@
       <c r="AV28" s="23"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
-      <c r="E29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -13327,7 +13346,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
-      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="17"/>
@@ -13355,7 +13374,7 @@
       <c r="AV29" s="18"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
@@ -13406,7 +13425,7 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -13434,8 +13453,8 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="22"/>
       <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
@@ -13452,19 +13471,14 @@
       <c r="AQ31" s="23"/>
       <c r="AR31" s="23"/>
       <c r="AS31" s="23"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="23"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="31"/>
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -13474,8 +13488,14 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13484,19 +13504,19 @@
   <dimension ref="A1:AW32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:M31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.53515625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -13557,9 +13577,9 @@
       <c r="AV1" s="86"/>
       <c r="AW1" s="87"/>
     </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -13706,7 +13726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="20">
         <v>13</v>
@@ -13853,7 +13873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="81"/>
       <c r="B4" s="22">
         <v>25</v>
@@ -14000,9 +14020,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
@@ -14149,7 +14169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81"/>
       <c r="B6" s="20">
         <v>13</v>
@@ -14296,7 +14316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="81"/>
       <c r="B7" s="22">
         <v>25</v>
@@ -14443,9 +14463,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="17">
         <v>1</v>
@@ -14468,10 +14488,10 @@
       <c r="H8" s="18">
         <v>7</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="32">
         <v>8</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="1">
         <v>9</v>
       </c>
       <c r="K8" s="18">
@@ -14492,10 +14512,10 @@
       <c r="P8" s="18">
         <v>3</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="1">
         <v>4</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="32">
         <v>5</v>
       </c>
       <c r="S8" s="18">
@@ -14592,7 +14612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81"/>
       <c r="B9" s="20">
         <v>13</v>
@@ -14739,7 +14759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81"/>
       <c r="B10" s="31">
         <v>25</v>
@@ -14834,10 +14854,10 @@
       <c r="AF10" s="23">
         <v>31</v>
       </c>
-      <c r="AG10" s="23">
+      <c r="AG10" s="31">
         <v>32</v>
       </c>
-      <c r="AH10" s="31">
+      <c r="AH10" s="1">
         <v>33</v>
       </c>
       <c r="AI10" s="23">
@@ -14858,10 +14878,10 @@
       <c r="AN10" s="23">
         <v>27</v>
       </c>
-      <c r="AO10" s="31">
+      <c r="AO10" s="1">
         <v>28</v>
       </c>
-      <c r="AP10" s="23">
+      <c r="AP10" s="31">
         <v>29</v>
       </c>
       <c r="AQ10" s="23">
@@ -14886,9 +14906,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" s="17">
         <v>1</v>
@@ -14911,10 +14931,10 @@
       <c r="H11" s="18">
         <v>7</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="32">
         <v>9</v>
       </c>
       <c r="K11" s="18">
@@ -14935,10 +14955,10 @@
       <c r="P11" s="18">
         <v>3</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="32">
         <v>4</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="1">
         <v>5</v>
       </c>
       <c r="S11" s="18">
@@ -14962,80 +14982,80 @@
       <c r="Y11" s="19">
         <v>12</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="103">
         <v>1</v>
       </c>
-      <c r="AA11" s="32">
+      <c r="AA11" s="104">
         <v>2</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB11" s="104">
         <v>3</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="104">
         <v>4</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="104">
         <v>5</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="104">
         <v>6</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11" s="104">
         <v>7</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG11" s="104">
         <v>8</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH11" s="104">
         <v>9</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="104">
         <v>10</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ11" s="104">
         <v>11</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AK11" s="105">
         <v>12</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="103">
         <v>1</v>
       </c>
-      <c r="AM11" s="18">
+      <c r="AM11" s="104">
         <v>2</v>
       </c>
-      <c r="AN11" s="18">
+      <c r="AN11" s="104">
         <v>3</v>
       </c>
-      <c r="AO11" s="18">
+      <c r="AO11" s="104">
         <v>4</v>
       </c>
-      <c r="AP11" s="18">
+      <c r="AP11" s="104">
         <v>5</v>
       </c>
-      <c r="AQ11" s="18">
+      <c r="AQ11" s="104">
         <v>6</v>
       </c>
-      <c r="AR11" s="18">
+      <c r="AR11" s="104">
         <v>7</v>
       </c>
-      <c r="AS11" s="18">
+      <c r="AS11" s="104">
         <v>8</v>
       </c>
-      <c r="AT11" s="18">
+      <c r="AT11" s="104">
         <v>9</v>
       </c>
-      <c r="AU11" s="18">
+      <c r="AU11" s="104">
         <v>10</v>
       </c>
-      <c r="AV11" s="32">
+      <c r="AV11" s="104">
         <v>11</v>
       </c>
-      <c r="AW11" s="19">
+      <c r="AW11" s="105">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81"/>
       <c r="B12" s="20">
         <v>13</v>
@@ -15109,80 +15129,80 @@
       <c r="Y12" s="21">
         <v>24</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="Z12" s="106">
         <v>13</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="107">
         <v>14</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="107">
         <v>15</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="107">
         <v>16</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AD12" s="107">
         <v>17</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AE12" s="107">
         <v>18</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF12" s="107">
         <v>19</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AG12" s="107">
         <v>20</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AH12" s="107">
         <v>21</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AI12" s="107">
         <v>22</v>
       </c>
-      <c r="AJ12" s="16">
+      <c r="AJ12" s="107">
         <v>23</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AK12" s="108">
         <v>24</v>
       </c>
-      <c r="AL12" s="20">
+      <c r="AL12" s="106">
         <v>13</v>
       </c>
-      <c r="AM12" s="16">
+      <c r="AM12" s="107">
         <v>14</v>
       </c>
-      <c r="AN12" s="16">
+      <c r="AN12" s="107">
         <v>15</v>
       </c>
-      <c r="AO12" s="16">
+      <c r="AO12" s="107">
         <v>16</v>
       </c>
-      <c r="AP12" s="16">
+      <c r="AP12" s="107">
         <v>17</v>
       </c>
-      <c r="AQ12" s="16">
+      <c r="AQ12" s="107">
         <v>18</v>
       </c>
-      <c r="AR12" s="16">
+      <c r="AR12" s="107">
         <v>19</v>
       </c>
-      <c r="AS12" s="16">
+      <c r="AS12" s="107">
         <v>20</v>
       </c>
-      <c r="AT12" s="16">
+      <c r="AT12" s="107">
         <v>21</v>
       </c>
-      <c r="AU12" s="16">
+      <c r="AU12" s="107">
         <v>22</v>
       </c>
-      <c r="AV12" s="16">
+      <c r="AV12" s="107">
         <v>23</v>
       </c>
-      <c r="AW12" s="21">
+      <c r="AW12" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="81"/>
       <c r="B13" s="22">
         <v>25</v>
@@ -15256,82 +15276,82 @@
       <c r="Y13" s="24">
         <v>36</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="109">
         <v>25</v>
       </c>
-      <c r="AA13" s="43">
+      <c r="AA13" s="110">
         <v>26</v>
       </c>
-      <c r="AB13" s="44">
+      <c r="AB13" s="110">
         <v>27</v>
       </c>
-      <c r="AC13" s="44">
+      <c r="AC13" s="110">
         <v>28</v>
       </c>
-      <c r="AD13" s="44">
+      <c r="AD13" s="110">
         <v>29</v>
       </c>
-      <c r="AE13" s="44">
+      <c r="AE13" s="110">
         <v>30</v>
       </c>
-      <c r="AF13" s="44">
+      <c r="AF13" s="110">
         <v>31</v>
       </c>
-      <c r="AG13" s="43">
+      <c r="AG13" s="111">
         <v>32</v>
       </c>
-      <c r="AH13" s="44">
+      <c r="AH13" s="110">
         <v>33</v>
       </c>
-      <c r="AI13" s="44">
+      <c r="AI13" s="110">
         <v>34</v>
       </c>
-      <c r="AJ13" s="44">
+      <c r="AJ13" s="110">
         <v>35</v>
       </c>
-      <c r="AK13" s="45">
+      <c r="AK13" s="112">
         <v>36</v>
       </c>
-      <c r="AL13" s="42">
+      <c r="AL13" s="109">
         <v>25</v>
       </c>
-      <c r="AM13" s="44">
+      <c r="AM13" s="110">
         <v>26</v>
       </c>
-      <c r="AN13" s="44">
+      <c r="AN13" s="110">
         <v>27</v>
       </c>
-      <c r="AO13" s="44">
+      <c r="AO13" s="110">
         <v>28</v>
       </c>
-      <c r="AP13" s="43">
+      <c r="AP13" s="111">
         <v>29</v>
       </c>
-      <c r="AQ13" s="44">
+      <c r="AQ13" s="110">
         <v>30</v>
       </c>
-      <c r="AR13" s="44">
+      <c r="AR13" s="110">
         <v>31</v>
       </c>
-      <c r="AS13" s="44">
+      <c r="AS13" s="110">
         <v>32</v>
       </c>
-      <c r="AT13" s="44">
+      <c r="AT13" s="110">
         <v>33</v>
       </c>
-      <c r="AU13" s="44">
+      <c r="AU13" s="110">
         <v>34</v>
       </c>
-      <c r="AV13" s="43">
+      <c r="AV13" s="110">
         <v>35</v>
       </c>
-      <c r="AW13" s="45">
+      <c r="AW13" s="112">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" s="17">
         <v>1</v>
@@ -15478,7 +15498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20">
         <v>13</v>
@@ -15625,7 +15645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22">
         <v>25</v>
@@ -15772,9 +15792,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
@@ -15921,7 +15941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="20">
         <v>13</v>
@@ -16068,7 +16088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81"/>
       <c r="B19" s="22">
         <v>25</v>
@@ -16215,14 +16235,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
-        <v>10</v>
-      </c>
-      <c r="B20" s="71">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
         <v>1</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="32">
         <v>2</v>
       </c>
       <c r="D20" s="18">
@@ -16255,40 +16275,40 @@
       <c r="M20" s="19">
         <v>12</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="103">
         <v>1</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="104">
         <v>2</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="104">
         <v>3</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="104">
         <v>4</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="104">
         <v>5</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="104">
         <v>6</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="104">
         <v>7</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="104">
         <v>8</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="104">
         <v>9</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="104">
         <v>10</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="104">
         <v>11</v>
       </c>
-      <c r="Y20" s="70">
+      <c r="Y20" s="105">
         <v>12</v>
       </c>
       <c r="Z20" s="17">
@@ -16327,44 +16347,44 @@
       <c r="AK20" s="19">
         <v>12</v>
       </c>
-      <c r="AL20" s="17">
+      <c r="AL20" s="103">
         <v>1</v>
       </c>
-      <c r="AM20" s="18">
+      <c r="AM20" s="104">
         <v>2</v>
       </c>
-      <c r="AN20" s="18">
+      <c r="AN20" s="104">
         <v>3</v>
       </c>
-      <c r="AO20" s="32">
+      <c r="AO20" s="104">
         <v>4</v>
       </c>
-      <c r="AP20" s="18">
+      <c r="AP20" s="104">
         <v>5</v>
       </c>
-      <c r="AQ20" s="18">
+      <c r="AQ20" s="104">
         <v>6</v>
       </c>
-      <c r="AR20" s="18">
+      <c r="AR20" s="104">
         <v>7</v>
       </c>
-      <c r="AS20" s="18">
+      <c r="AS20" s="104">
         <v>8</v>
       </c>
-      <c r="AT20" s="32">
+      <c r="AT20" s="104">
         <v>9</v>
       </c>
-      <c r="AU20" s="18">
+      <c r="AU20" s="104">
         <v>10</v>
       </c>
-      <c r="AV20" s="18">
+      <c r="AV20" s="104">
         <v>11</v>
       </c>
-      <c r="AW20" s="19">
+      <c r="AW20" s="105">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20">
         <v>13</v>
@@ -16402,40 +16422,40 @@
       <c r="M21" s="21">
         <v>24</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="106">
         <v>13</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="107">
         <v>14</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="107">
         <v>15</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="107">
         <v>16</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="107">
         <v>17</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="107">
         <v>18</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="107">
         <v>19</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="107">
         <v>20</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="107">
         <v>21</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="107">
         <v>22</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="107">
         <v>23</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="108">
         <v>24</v>
       </c>
       <c r="Z21" s="20">
@@ -16474,44 +16494,44 @@
       <c r="AK21" s="21">
         <v>24</v>
       </c>
-      <c r="AL21" s="20">
+      <c r="AL21" s="106">
         <v>13</v>
       </c>
-      <c r="AM21" s="16">
+      <c r="AM21" s="107">
         <v>14</v>
       </c>
-      <c r="AN21" s="16">
+      <c r="AN21" s="107">
         <v>15</v>
       </c>
-      <c r="AO21" s="16">
+      <c r="AO21" s="107">
         <v>16</v>
       </c>
-      <c r="AP21" s="16">
+      <c r="AP21" s="107">
         <v>17</v>
       </c>
-      <c r="AQ21" s="16">
+      <c r="AQ21" s="107">
         <v>18</v>
       </c>
-      <c r="AR21" s="16">
+      <c r="AR21" s="107">
         <v>19</v>
       </c>
-      <c r="AS21" s="16">
+      <c r="AS21" s="107">
         <v>20</v>
       </c>
-      <c r="AT21" s="16">
+      <c r="AT21" s="107">
         <v>21</v>
       </c>
-      <c r="AU21" s="16">
+      <c r="AU21" s="107">
         <v>22</v>
       </c>
-      <c r="AV21" s="16">
+      <c r="AV21" s="107">
         <v>23</v>
       </c>
-      <c r="AW21" s="21">
+      <c r="AW21" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22">
         <v>25</v>
@@ -16549,46 +16569,46 @@
       <c r="M22" s="24">
         <v>36</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="118">
         <v>25</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="116">
         <v>26</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="116">
         <v>27</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="116">
         <v>28</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="116">
         <v>29</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="116">
         <v>30</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="116">
         <v>31</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="116">
         <v>32</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="116">
         <v>33</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="116">
         <v>34</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="116">
         <v>35</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="117">
         <v>36</v>
       </c>
-      <c r="Z22" s="69">
+      <c r="Z22" s="65">
         <v>25</v>
       </c>
-      <c r="AA22" s="23">
+      <c r="AA22" s="31">
         <v>26</v>
       </c>
       <c r="AB22" s="23">
@@ -16621,46 +16641,46 @@
       <c r="AK22" s="24">
         <v>36</v>
       </c>
-      <c r="AL22" s="22">
+      <c r="AL22" s="118">
         <v>25</v>
       </c>
-      <c r="AM22" s="23">
+      <c r="AM22" s="116">
         <v>26</v>
       </c>
-      <c r="AN22" s="23">
+      <c r="AN22" s="116">
         <v>27</v>
       </c>
-      <c r="AO22" s="23">
+      <c r="AO22" s="116">
         <v>28</v>
       </c>
-      <c r="AP22" s="23">
+      <c r="AP22" s="116">
         <v>29</v>
       </c>
-      <c r="AQ22" s="23">
+      <c r="AQ22" s="116">
         <v>30</v>
       </c>
-      <c r="AR22" s="23">
+      <c r="AR22" s="116">
         <v>31</v>
       </c>
-      <c r="AS22" s="23">
+      <c r="AS22" s="116">
         <v>32</v>
       </c>
-      <c r="AT22" s="23">
+      <c r="AT22" s="116">
         <v>33</v>
       </c>
-      <c r="AU22" s="23">
+      <c r="AU22" s="116">
         <v>34</v>
       </c>
-      <c r="AV22" s="23">
+      <c r="AV22" s="116">
         <v>35</v>
       </c>
-      <c r="AW22" s="72">
+      <c r="AW22" s="117">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B23" s="17">
         <v>1</v>
@@ -16734,80 +16754,80 @@
       <c r="Y23" s="19">
         <v>12</v>
       </c>
-      <c r="Z23" s="17">
+      <c r="Z23" s="103">
         <v>1</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23" s="104">
         <v>2</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AB23" s="104">
         <v>3</v>
       </c>
-      <c r="AC23" s="32">
+      <c r="AC23" s="104">
         <v>4</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="104">
         <v>5</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="104">
         <v>6</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="104">
         <v>7</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="104">
         <v>8</v>
       </c>
-      <c r="AH23" s="18">
+      <c r="AH23" s="104">
         <v>9</v>
       </c>
-      <c r="AI23" s="18">
+      <c r="AI23" s="104">
         <v>10</v>
       </c>
-      <c r="AJ23" s="18">
+      <c r="AJ23" s="104">
         <v>11</v>
       </c>
-      <c r="AK23" s="19">
+      <c r="AK23" s="105">
         <v>12</v>
       </c>
-      <c r="AL23" s="17">
+      <c r="AL23" s="103">
         <v>1</v>
       </c>
-      <c r="AM23" s="18">
+      <c r="AM23" s="104">
         <v>2</v>
       </c>
-      <c r="AN23" s="18">
+      <c r="AN23" s="104">
         <v>3</v>
       </c>
-      <c r="AO23" s="18">
+      <c r="AO23" s="104">
         <v>4</v>
       </c>
-      <c r="AP23" s="18">
+      <c r="AP23" s="104">
         <v>5</v>
       </c>
-      <c r="AQ23" s="18">
+      <c r="AQ23" s="104">
         <v>6</v>
       </c>
-      <c r="AR23" s="18">
+      <c r="AR23" s="104">
         <v>7</v>
       </c>
-      <c r="AS23" s="18">
+      <c r="AS23" s="104">
         <v>8</v>
       </c>
-      <c r="AT23" s="32">
+      <c r="AT23" s="104">
         <v>9</v>
       </c>
-      <c r="AU23" s="18">
+      <c r="AU23" s="104">
         <v>10</v>
       </c>
-      <c r="AV23" s="18">
+      <c r="AV23" s="104">
         <v>11</v>
       </c>
-      <c r="AW23" s="19">
+      <c r="AW23" s="105">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="20">
         <v>13</v>
@@ -16881,80 +16901,80 @@
       <c r="Y24" s="21">
         <v>24</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="Z24" s="106">
         <v>13</v>
       </c>
-      <c r="AA24" s="16">
+      <c r="AA24" s="107">
         <v>14</v>
       </c>
-      <c r="AB24" s="16">
+      <c r="AB24" s="107">
         <v>15</v>
       </c>
-      <c r="AC24" s="16">
+      <c r="AC24" s="107">
         <v>16</v>
       </c>
-      <c r="AD24" s="16">
+      <c r="AD24" s="107">
         <v>17</v>
       </c>
-      <c r="AE24" s="16">
+      <c r="AE24" s="107">
         <v>18</v>
       </c>
-      <c r="AF24" s="16">
+      <c r="AF24" s="107">
         <v>19</v>
       </c>
-      <c r="AG24" s="16">
+      <c r="AG24" s="107">
         <v>20</v>
       </c>
-      <c r="AH24" s="16">
+      <c r="AH24" s="107">
         <v>21</v>
       </c>
-      <c r="AI24" s="16">
+      <c r="AI24" s="107">
         <v>22</v>
       </c>
-      <c r="AJ24" s="33">
+      <c r="AJ24" s="107">
         <v>23</v>
       </c>
-      <c r="AK24" s="21">
+      <c r="AK24" s="108">
         <v>24</v>
       </c>
-      <c r="AL24" s="20">
+      <c r="AL24" s="106">
         <v>13</v>
       </c>
-      <c r="AM24" s="33">
+      <c r="AM24" s="107">
         <v>14</v>
       </c>
-      <c r="AN24" s="16">
+      <c r="AN24" s="107">
         <v>15</v>
       </c>
-      <c r="AO24" s="16">
+      <c r="AO24" s="107">
         <v>16</v>
       </c>
-      <c r="AP24" s="16">
+      <c r="AP24" s="107">
         <v>17</v>
       </c>
-      <c r="AQ24" s="16">
+      <c r="AQ24" s="107">
         <v>18</v>
       </c>
-      <c r="AR24" s="16">
+      <c r="AR24" s="107">
         <v>19</v>
       </c>
-      <c r="AS24" s="16">
+      <c r="AS24" s="107">
         <v>20</v>
       </c>
-      <c r="AT24" s="16">
+      <c r="AT24" s="107">
         <v>21</v>
       </c>
-      <c r="AU24" s="16">
+      <c r="AU24" s="107">
         <v>22</v>
       </c>
-      <c r="AV24" s="16">
+      <c r="AV24" s="107">
         <v>23</v>
       </c>
-      <c r="AW24" s="21">
+      <c r="AW24" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="22">
         <v>25</v>
@@ -17028,82 +17048,82 @@
       <c r="Y25" s="24">
         <v>36</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="118">
         <v>25</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AA25" s="116">
         <v>26</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB25" s="116">
         <v>27</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="116">
         <v>28</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="116">
         <v>29</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="116">
         <v>30</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="116">
         <v>31</v>
       </c>
-      <c r="AG25" s="23">
+      <c r="AG25" s="116">
         <v>32</v>
       </c>
-      <c r="AH25" s="31">
+      <c r="AH25" s="116">
         <v>33</v>
       </c>
-      <c r="AI25" s="23">
+      <c r="AI25" s="116">
         <v>34</v>
       </c>
-      <c r="AJ25" s="23">
+      <c r="AJ25" s="116">
         <v>35</v>
       </c>
-      <c r="AK25" s="24">
+      <c r="AK25" s="117">
         <v>36</v>
       </c>
-      <c r="AL25" s="22">
+      <c r="AL25" s="118">
         <v>25</v>
       </c>
-      <c r="AM25" s="23">
+      <c r="AM25" s="116">
         <v>26</v>
       </c>
-      <c r="AN25" s="23">
+      <c r="AN25" s="116">
         <v>27</v>
       </c>
-      <c r="AO25" s="31">
+      <c r="AO25" s="116">
         <v>28</v>
       </c>
-      <c r="AP25" s="23">
+      <c r="AP25" s="116">
         <v>29</v>
       </c>
-      <c r="AQ25" s="23">
+      <c r="AQ25" s="116">
         <v>30</v>
       </c>
-      <c r="AR25" s="23">
+      <c r="AR25" s="116">
         <v>31</v>
       </c>
-      <c r="AS25" s="23">
+      <c r="AS25" s="116">
         <v>32</v>
       </c>
-      <c r="AT25" s="23">
+      <c r="AT25" s="116">
         <v>33</v>
       </c>
-      <c r="AU25" s="23">
+      <c r="AU25" s="116">
         <v>34</v>
       </c>
-      <c r="AV25" s="23">
+      <c r="AV25" s="116">
         <v>35</v>
       </c>
-      <c r="AW25" s="24">
+      <c r="AW25" s="117">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -17204,10 +17224,10 @@
       <c r="AH26" s="18">
         <v>9</v>
       </c>
-      <c r="AI26" s="18">
+      <c r="AI26" s="32">
         <v>10</v>
       </c>
-      <c r="AJ26" s="32">
+      <c r="AJ26" s="1">
         <v>11</v>
       </c>
       <c r="AK26" s="19">
@@ -17216,10 +17236,10 @@
       <c r="AL26" s="17">
         <v>1</v>
       </c>
-      <c r="AM26" s="32">
+      <c r="AM26" s="1">
         <v>2</v>
       </c>
-      <c r="AN26" s="18">
+      <c r="AN26" s="32">
         <v>3</v>
       </c>
       <c r="AO26" s="18">
@@ -17250,7 +17270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="20">
         <v>13</v>
@@ -17397,7 +17417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="22">
         <v>25</v>
@@ -17426,10 +17446,10 @@
       <c r="J28" s="23">
         <v>33</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="31">
         <v>34</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="1">
         <v>35</v>
       </c>
       <c r="M28" s="24">
@@ -17438,10 +17458,10 @@
       <c r="N28" s="27">
         <v>25</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="1">
         <v>26</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="31">
         <v>27</v>
       </c>
       <c r="Q28" s="23">
@@ -17544,9 +17564,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B29" s="17">
         <v>1</v>
@@ -17554,10 +17574,10 @@
       <c r="C29" s="18">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="32">
         <v>3</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="18">
@@ -17584,40 +17604,40 @@
       <c r="M29" s="19">
         <v>12</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="113">
         <v>1</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="104">
         <v>2</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="104">
         <v>3</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="104">
         <v>4</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="104">
         <v>5</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="104">
         <v>6</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="104">
         <v>7</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="104">
         <v>8</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V29" s="111">
         <v>9</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="104">
         <v>10</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="104">
         <v>11</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="Y29" s="105">
         <v>12</v>
       </c>
       <c r="Z29" s="17">
@@ -17656,44 +17676,44 @@
       <c r="AK29" s="19">
         <v>12</v>
       </c>
-      <c r="AL29" s="17">
+      <c r="AL29" s="103">
         <v>1</v>
       </c>
-      <c r="AM29" s="18">
+      <c r="AM29" s="104">
         <v>2</v>
       </c>
-      <c r="AN29" s="18">
+      <c r="AN29" s="104">
         <v>3</v>
       </c>
-      <c r="AO29" s="18">
+      <c r="AO29" s="104">
         <v>4</v>
       </c>
-      <c r="AP29" s="18">
+      <c r="AP29" s="104">
         <v>5</v>
       </c>
-      <c r="AQ29" s="18">
+      <c r="AQ29" s="104">
         <v>6</v>
       </c>
-      <c r="AR29" s="18">
+      <c r="AR29" s="104">
         <v>7</v>
       </c>
-      <c r="AS29" s="32">
+      <c r="AS29" s="104">
         <v>8</v>
       </c>
-      <c r="AT29" s="18">
+      <c r="AT29" s="104">
         <v>9</v>
       </c>
-      <c r="AU29" s="18">
+      <c r="AU29" s="104">
         <v>10</v>
       </c>
-      <c r="AV29" s="18">
+      <c r="AV29" s="104">
         <v>11</v>
       </c>
-      <c r="AW29" s="19">
+      <c r="AW29" s="105">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="20">
         <v>13</v>
@@ -17731,40 +17751,40 @@
       <c r="M30" s="21">
         <v>24</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="114">
         <v>13</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="107">
         <v>14</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="107">
         <v>15</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="107">
         <v>16</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30" s="107">
         <v>17</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="107">
         <v>18</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="107">
         <v>19</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="107">
         <v>20</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="107">
         <v>21</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="107">
         <v>22</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30" s="107">
         <v>23</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="108">
         <v>24</v>
       </c>
       <c r="Z30" s="20">
@@ -17803,44 +17823,44 @@
       <c r="AK30" s="21">
         <v>24</v>
       </c>
-      <c r="AL30" s="20">
+      <c r="AL30" s="106">
         <v>13</v>
       </c>
-      <c r="AM30" s="16">
+      <c r="AM30" s="107">
         <v>14</v>
       </c>
-      <c r="AN30" s="16">
+      <c r="AN30" s="107">
         <v>15</v>
       </c>
-      <c r="AO30" s="16">
+      <c r="AO30" s="107">
         <v>16</v>
       </c>
-      <c r="AP30" s="16">
+      <c r="AP30" s="107">
         <v>17</v>
       </c>
-      <c r="AQ30" s="16">
+      <c r="AQ30" s="107">
         <v>18</v>
       </c>
-      <c r="AR30" s="16">
+      <c r="AR30" s="107">
         <v>19</v>
       </c>
-      <c r="AS30" s="16">
+      <c r="AS30" s="107">
         <v>20</v>
       </c>
-      <c r="AT30" s="16">
+      <c r="AT30" s="107">
         <v>21</v>
       </c>
-      <c r="AU30" s="16">
+      <c r="AU30" s="107">
         <v>22</v>
       </c>
-      <c r="AV30" s="16">
+      <c r="AV30" s="107">
         <v>23</v>
       </c>
-      <c r="AW30" s="21">
+      <c r="AW30" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81"/>
       <c r="B31" s="22">
         <v>25</v>
@@ -17878,40 +17898,40 @@
       <c r="M31" s="24">
         <v>36</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="115">
         <v>25</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="116">
         <v>26</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="116">
         <v>27</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="116">
         <v>28</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="116">
         <v>29</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="116">
         <v>30</v>
       </c>
-      <c r="T31" s="23">
+      <c r="T31" s="116">
         <v>31</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="116">
         <v>32</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V31" s="116">
         <v>33</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="116">
         <v>34</v>
       </c>
-      <c r="X31" s="23">
+      <c r="X31" s="116">
         <v>35</v>
       </c>
-      <c r="Y31" s="24">
+      <c r="Y31" s="117">
         <v>36</v>
       </c>
       <c r="Z31" s="22">
@@ -17920,10 +17940,10 @@
       <c r="AA31" s="23">
         <v>26</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB31" s="31">
         <v>27</v>
       </c>
-      <c r="AC31" s="31">
+      <c r="AC31" s="23">
         <v>28</v>
       </c>
       <c r="AD31" s="23">
@@ -17950,52 +17970,46 @@
       <c r="AK31" s="24">
         <v>36</v>
       </c>
-      <c r="AL31" s="22">
+      <c r="AL31" s="118">
         <v>25</v>
       </c>
-      <c r="AM31" s="23">
+      <c r="AM31" s="116">
         <v>26</v>
       </c>
-      <c r="AN31" s="31">
+      <c r="AN31" s="116">
         <v>27</v>
       </c>
-      <c r="AO31" s="23">
+      <c r="AO31" s="116">
         <v>28</v>
       </c>
-      <c r="AP31" s="23">
+      <c r="AP31" s="116">
         <v>29</v>
       </c>
-      <c r="AQ31" s="23">
+      <c r="AQ31" s="116">
         <v>30</v>
       </c>
-      <c r="AR31" s="23">
+      <c r="AR31" s="116">
         <v>31</v>
       </c>
-      <c r="AS31" s="23">
+      <c r="AS31" s="116">
         <v>32</v>
       </c>
-      <c r="AT31" s="31">
+      <c r="AT31" s="116">
         <v>33</v>
       </c>
-      <c r="AU31" s="23">
+      <c r="AU31" s="116">
         <v>34</v>
       </c>
-      <c r="AV31" s="23">
+      <c r="AV31" s="116">
         <v>35</v>
       </c>
-      <c r="AW31" s="24">
+      <c r="AW31" s="117">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A8:A10"/>
@@ -18004,6 +18018,12 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18017,14 +18037,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18074,7 +18094,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -18124,7 +18144,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -18174,7 +18194,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -18224,7 +18244,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -18274,7 +18294,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -18324,7 +18344,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -18374,7 +18394,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -18424,7 +18444,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -18474,7 +18494,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -18524,7 +18544,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -18574,7 +18594,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -18624,7 +18644,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -18674,7 +18694,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -18724,7 +18744,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -18774,7 +18794,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -18824,7 +18844,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -18874,7 +18894,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -18924,7 +18944,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -18974,7 +18994,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -19024,7 +19044,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -19074,7 +19094,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -19124,7 +19144,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -19174,7 +19194,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -19224,7 +19244,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -19274,7 +19294,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -19324,7 +19344,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -19374,7 +19394,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -19424,7 +19444,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -19474,7 +19494,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -19538,15 +19558,15 @@
       <selection activeCell="B5" sqref="A5:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -19607,7 +19627,7 @@
       <c r="AV1" s="83"/>
       <c r="AW1" s="84"/>
     </row>
-    <row r="2" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="88">
         <v>15</v>
       </c>
@@ -19660,7 +19680,7 @@
       <c r="AV2" s="18"/>
       <c r="AW2" s="19"/>
     </row>
-    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="89"/>
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
@@ -19711,7 +19731,7 @@
       <c r="AV3" s="16"/>
       <c r="AW3" s="21"/>
     </row>
-    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="89"/>
       <c r="B4" s="22"/>
       <c r="C4" s="31"/>
@@ -19762,7 +19782,7 @@
       <c r="AV4" s="23"/>
       <c r="AW4" s="24"/>
     </row>
-    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="89">
         <v>17</v>
       </c>
@@ -19815,7 +19835,7 @@
       <c r="AV5" s="18"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="89"/>
       <c r="B6" s="20"/>
       <c r="C6" s="33"/>
@@ -19866,7 +19886,7 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="89"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -19917,7 +19937,7 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="89">
         <v>17</v>
       </c>
@@ -19970,7 +19990,7 @@
       <c r="AV8" s="18"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="89"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -20021,7 +20041,7 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="89"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -20072,7 +20092,7 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="89">
         <v>18</v>
       </c>
@@ -20125,7 +20145,7 @@
       <c r="AV11" s="18"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="89"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
@@ -20176,7 +20196,7 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="89"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
@@ -20227,7 +20247,7 @@
       <c r="AV13" s="23"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="81">
         <v>14</v>
       </c>
@@ -20280,7 +20300,7 @@
       <c r="AV14" s="18"/>
       <c r="AW14" s="19"/>
     </row>
-    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -20331,7 +20351,7 @@
       <c r="AV15" s="16"/>
       <c r="AW15" s="21"/>
     </row>
-    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="81"/>
       <c r="B16" s="22"/>
       <c r="C16" s="31"/>
@@ -20382,7 +20402,7 @@
       <c r="AV16" s="23"/>
       <c r="AW16" s="24"/>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81">
         <v>14</v>
       </c>
@@ -20435,7 +20455,7 @@
       <c r="AV17" s="18"/>
       <c r="AW17" s="19"/>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
@@ -20486,7 +20506,7 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
@@ -20537,7 +20557,7 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81">
         <v>14</v>
       </c>
@@ -20590,7 +20610,7 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
@@ -20641,7 +20661,7 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="22"/>
       <c r="C22" s="31"/>
@@ -20692,7 +20712,7 @@
       <c r="AV22" s="23"/>
       <c r="AW22" s="24"/>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81">
         <v>14</v>
       </c>
@@ -20745,7 +20765,7 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
@@ -20796,7 +20816,7 @@
       <c r="AV24" s="16"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -20847,7 +20867,7 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81">
         <v>13</v>
       </c>
@@ -20900,7 +20920,7 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="20"/>
       <c r="C27" s="33"/>
@@ -20951,7 +20971,7 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -21002,7 +21022,7 @@
       <c r="AV28" s="23"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81">
         <v>15</v>
       </c>
@@ -21055,7 +21075,7 @@
       <c r="AV29" s="18"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
@@ -21106,7 +21126,7 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -21157,14 +21177,9 @@
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="N1:Y1"/>
@@ -21174,6 +21189,11 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21183,18 +21203,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B10CB6-986B-470E-8071-0C4B74702F5A}">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN35" sqref="AN35"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="49" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.69140625" customWidth="1"/>
+    <col min="2" max="49" width="5.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" ht="32.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -21255,10 +21275,8 @@
       <c r="AV1" s="83"/>
       <c r="AW1" s="84"/>
     </row>
-    <row r="2" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="92"/>
       <c r="B2" s="73"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -21308,8 +21326,8 @@
       <c r="AV2" s="59"/>
       <c r="AW2" s="62"/>
     </row>
-    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="90"/>
       <c r="B3" s="78"/>
       <c r="C3" s="58"/>
       <c r="D3" s="16"/>
@@ -21359,8 +21377,8 @@
       <c r="AV3" s="58"/>
       <c r="AW3" s="64"/>
     </row>
-    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="90"/>
       <c r="B4" s="27"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -21410,10 +21428,8 @@
       <c r="AV4" s="66"/>
       <c r="AW4" s="72"/>
     </row>
-    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="90"/>
       <c r="B5" s="75"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -21463,8 +21479,8 @@
       <c r="AV5" s="32"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="90"/>
       <c r="B6" s="26"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -21514,8 +21530,8 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
+    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="90"/>
       <c r="B7" s="27"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23"/>
@@ -21565,10 +21581,8 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
-        <v>15</v>
-      </c>
+    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="90"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -21618,8 +21632,8 @@
       <c r="AV8" s="59"/>
       <c r="AW8" s="62"/>
     </row>
-    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="90"/>
       <c r="B9" s="74"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -21669,8 +21683,8 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="60"/>
     </row>
-    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="90"/>
       <c r="B10" s="76"/>
       <c r="C10" s="66"/>
       <c r="D10" s="23"/>
@@ -21720,10 +21734,8 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
-        <v>15</v>
-      </c>
+    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="90"/>
       <c r="B11" s="25"/>
       <c r="C11" s="59"/>
       <c r="D11" s="18"/>
@@ -21771,8 +21783,8 @@
       <c r="AU11" s="18"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="90"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33"/>
       <c r="D12" s="16"/>
@@ -21822,8 +21834,8 @@
       <c r="AV12" s="33"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="90"/>
       <c r="B13" s="27"/>
       <c r="C13" s="66"/>
       <c r="D13" s="23"/>
@@ -21872,10 +21884,8 @@
       <c r="AV13" s="66"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
-        <v>15</v>
-      </c>
+    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="90"/>
       <c r="B14" s="25"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -21925,8 +21935,8 @@
       <c r="AV14" s="59"/>
       <c r="AW14" s="62"/>
     </row>
-    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="90"/>
       <c r="B15" s="26"/>
       <c r="C15" s="33"/>
       <c r="E15" s="16"/>
@@ -21972,8 +21982,8 @@
       <c r="AV15" s="33"/>
       <c r="AW15" s="64"/>
     </row>
-    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="90"/>
       <c r="B16" s="27"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -22023,10 +22033,8 @@
       <c r="AV16" s="66"/>
       <c r="AW16" s="67"/>
     </row>
-    <row r="17" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
-        <v>15</v>
-      </c>
+    <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="90"/>
       <c r="B17" s="25"/>
       <c r="C17" s="18"/>
       <c r="D17" s="59"/>
@@ -22076,8 +22084,8 @@
       <c r="AV17" s="59"/>
       <c r="AW17" s="70"/>
     </row>
-    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="90"/>
       <c r="B18" s="26"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -22127,8 +22135,8 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="90"/>
       <c r="B19" s="77"/>
       <c r="C19" s="66"/>
       <c r="D19" s="23"/>
@@ -22178,10 +22186,8 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
-        <v>15</v>
-      </c>
+    <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="90"/>
       <c r="B20" s="73"/>
       <c r="C20" s="59"/>
       <c r="D20" s="18"/>
@@ -22229,8 +22235,8 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+    <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="90"/>
       <c r="B21" s="26"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -22280,8 +22286,8 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
+    <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="90"/>
       <c r="B22" s="27"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -22329,10 +22335,8 @@
       <c r="AV22" s="66"/>
       <c r="AW22" s="72"/>
     </row>
-    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
-        <v>15</v>
-      </c>
+    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="90"/>
       <c r="B23" s="25"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -22382,8 +22386,8 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="90"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16"/>
@@ -22433,8 +22437,8 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
+    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="90"/>
       <c r="B25" s="27"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -22484,10 +22488,8 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
-        <v>15</v>
-      </c>
+    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="90"/>
       <c r="B26" s="25"/>
       <c r="C26" s="32"/>
       <c r="D26" s="18"/>
@@ -22537,8 +22539,8 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="90"/>
       <c r="B27" s="26"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -22584,8 +22586,8 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="90"/>
       <c r="B28" s="27"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -22635,10 +22637,8 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
-        <v>15</v>
-      </c>
+    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="90"/>
       <c r="B29" s="25"/>
       <c r="C29" s="18"/>
       <c r="D29" s="32"/>
@@ -22685,8 +22685,8 @@
       <c r="AV29" s="32"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="90"/>
       <c r="B30" s="26"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -22735,8 +22735,8 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="91"/>
       <c r="B31" s="27"/>
       <c r="C31" s="31"/>
       <c r="D31" s="23"/>
@@ -22788,6 +22788,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -22797,11 +22802,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22817,13 +22817,13 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:AW31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="49" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.69140625" customWidth="1"/>
+    <col min="2" max="49" width="5.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" ht="32.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -22884,8 +22884,8 @@
       <c r="AV1" s="83"/>
       <c r="AW1" s="84"/>
     </row>
-    <row r="2" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90">
+    <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="92">
         <v>15</v>
       </c>
       <c r="B2" s="73">
@@ -23033,8 +23033,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="90"/>
       <c r="B3" s="78">
         <v>13</v>
       </c>
@@ -23180,8 +23180,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="90"/>
       <c r="B4" s="27">
         <v>25</v>
       </c>
@@ -23327,8 +23327,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
+    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="90">
         <v>15</v>
       </c>
       <c r="B5" s="75">
@@ -23476,8 +23476,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="90"/>
       <c r="B6" s="26">
         <v>13</v>
       </c>
@@ -23623,8 +23623,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
+    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="90"/>
       <c r="B7" s="27">
         <v>25</v>
       </c>
@@ -23770,8 +23770,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="90">
         <v>15</v>
       </c>
       <c r="B8" s="25">
@@ -23919,8 +23919,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="90"/>
       <c r="B9" s="74">
         <v>13</v>
       </c>
@@ -24066,8 +24066,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="90"/>
       <c r="B10" s="76">
         <v>25</v>
       </c>
@@ -24213,8 +24213,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="90">
         <v>15</v>
       </c>
       <c r="B11" s="25">
@@ -24362,8 +24362,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="90"/>
       <c r="B12" s="26">
         <v>13</v>
       </c>
@@ -24509,8 +24509,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="90"/>
       <c r="B13" s="27">
         <v>25</v>
       </c>
@@ -24656,8 +24656,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="90">
         <v>15</v>
       </c>
       <c r="B14" s="25">
@@ -24805,8 +24805,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="90"/>
       <c r="B15" s="26">
         <v>13</v>
       </c>
@@ -24952,8 +24952,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="90"/>
       <c r="B16" s="27">
         <v>25</v>
       </c>
@@ -25099,8 +25099,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+    <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="90">
         <v>15</v>
       </c>
       <c r="B17" s="25">
@@ -25248,8 +25248,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="90"/>
       <c r="B18" s="26">
         <v>13</v>
       </c>
@@ -25395,8 +25395,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="90"/>
       <c r="B19" s="77">
         <v>25</v>
       </c>
@@ -25542,8 +25542,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+    <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="90">
         <v>15</v>
       </c>
       <c r="B20" s="73">
@@ -25691,8 +25691,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+    <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="90"/>
       <c r="B21" s="26">
         <v>13</v>
       </c>
@@ -25838,8 +25838,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
+    <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="90"/>
       <c r="B22" s="27">
         <v>25</v>
       </c>
@@ -25985,8 +25985,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="90">
         <v>15</v>
       </c>
       <c r="B23" s="25">
@@ -26134,8 +26134,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="90"/>
       <c r="B24" s="26">
         <v>13</v>
       </c>
@@ -26281,8 +26281,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
+    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="90"/>
       <c r="B25" s="27">
         <v>25</v>
       </c>
@@ -26428,8 +26428,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="90">
         <v>15</v>
       </c>
       <c r="B26" s="25">
@@ -26577,8 +26577,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="90"/>
       <c r="B27" s="26">
         <v>13</v>
       </c>
@@ -26724,8 +26724,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="90"/>
       <c r="B28" s="27">
         <v>25</v>
       </c>
@@ -26871,8 +26871,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="90">
         <v>15</v>
       </c>
       <c r="B29" s="25">
@@ -27020,8 +27020,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="90"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -27167,8 +27167,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="91"/>
       <c r="B31" s="27">
         <v>25</v>
       </c>
@@ -27316,6 +27316,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A8:A10"/>
@@ -27324,12 +27330,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assets/ExperimentData/ExperimentQuestions/Patterns.xlsx
+++ b/Assets/ExperimentData/ExperimentQuestions/Patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe Liu\Documents\Joe\Unity\VisualPattern-LimitedVision-Git\Assets\ExperimentData\ExperimentQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B13D972-C5E2-4001-B1C8-B786A160C3A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3589F9-2257-446E-9A69-538B2B4339CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10363" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
+    <workbookView xWindow="-28920" yWindow="10363" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Level 6" sheetId="3" state="hidden" r:id="rId7"/>
     <sheet name="Level 5 (Ori)" sheetId="10" r:id="rId8"/>
     <sheet name="Level 5 (number)" sheetId="11" r:id="rId9"/>
-    <sheet name="Level 6 (Ori)" sheetId="8" r:id="rId10"/>
-    <sheet name="Level 6 (number)" sheetId="6" r:id="rId11"/>
-    <sheet name="Level 8" sheetId="4" state="hidden" r:id="rId12"/>
+    <sheet name="Level 5 (number auto) " sheetId="15" r:id="rId10"/>
+    <sheet name="Level 6 (Ori)" sheetId="8" r:id="rId11"/>
+    <sheet name="Level 6 (number)" sheetId="6" r:id="rId12"/>
+    <sheet name="Level 8" sheetId="4" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>Original</t>
   </si>
@@ -133,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -685,12 +686,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -776,9 +975,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,6 +1009,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,23 +1064,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2690,6 +2908,4472 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3C194E-5CE2-4733-842E-71ACE3410B2C}">
+  <dimension ref="A1:AV31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="24" width="5.69140625" customWidth="1"/>
+    <col min="25" max="36" width="5.69140625" hidden="1" customWidth="1"/>
+    <col min="37" max="48" width="5.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="21.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="113"/>
+    </row>
+    <row r="2" spans="1:48" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="98">
+        <v>0</v>
+      </c>
+      <c r="B2" s="130">
+        <v>1</v>
+      </c>
+      <c r="C2" s="99">
+        <v>2</v>
+      </c>
+      <c r="D2" s="99">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99">
+        <v>4</v>
+      </c>
+      <c r="F2" s="130">
+        <v>5</v>
+      </c>
+      <c r="G2" s="99">
+        <v>6</v>
+      </c>
+      <c r="H2" s="99">
+        <v>7</v>
+      </c>
+      <c r="I2" s="99">
+        <v>8</v>
+      </c>
+      <c r="J2" s="99">
+        <v>9</v>
+      </c>
+      <c r="K2" s="99">
+        <v>10</v>
+      </c>
+      <c r="L2" s="100">
+        <v>11</v>
+      </c>
+      <c r="M2" s="98">
+        <v>0</v>
+      </c>
+      <c r="N2" s="99">
+        <v>1</v>
+      </c>
+      <c r="O2" s="99">
+        <v>2</v>
+      </c>
+      <c r="P2" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="99">
+        <v>4</v>
+      </c>
+      <c r="R2" s="99">
+        <v>5</v>
+      </c>
+      <c r="S2" s="74">
+        <v>6</v>
+      </c>
+      <c r="T2" s="99">
+        <v>7</v>
+      </c>
+      <c r="U2" s="99">
+        <v>8</v>
+      </c>
+      <c r="V2" s="99">
+        <v>9</v>
+      </c>
+      <c r="W2" s="74">
+        <v>10</v>
+      </c>
+      <c r="X2" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="130">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="130">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV2" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="101">
+        <v>12</v>
+      </c>
+      <c r="B3" s="58">
+        <v>13</v>
+      </c>
+      <c r="C3" s="58">
+        <v>14</v>
+      </c>
+      <c r="D3" s="58">
+        <v>15</v>
+      </c>
+      <c r="E3" s="58">
+        <v>16</v>
+      </c>
+      <c r="F3" s="58">
+        <v>17</v>
+      </c>
+      <c r="G3" s="58">
+        <v>18</v>
+      </c>
+      <c r="H3" s="58">
+        <v>19</v>
+      </c>
+      <c r="I3" s="58">
+        <v>20</v>
+      </c>
+      <c r="J3" s="58">
+        <v>21</v>
+      </c>
+      <c r="K3" s="58">
+        <v>22</v>
+      </c>
+      <c r="L3" s="131">
+        <v>23</v>
+      </c>
+      <c r="M3" s="74">
+        <v>12</v>
+      </c>
+      <c r="N3" s="58">
+        <v>13</v>
+      </c>
+      <c r="O3" s="78">
+        <v>14</v>
+      </c>
+      <c r="P3" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="78">
+        <v>16</v>
+      </c>
+      <c r="R3" s="58">
+        <v>17</v>
+      </c>
+      <c r="S3" s="78">
+        <v>18</v>
+      </c>
+      <c r="T3" s="58">
+        <v>19</v>
+      </c>
+      <c r="U3" s="78">
+        <v>20</v>
+      </c>
+      <c r="V3" s="58">
+        <v>21</v>
+      </c>
+      <c r="W3" s="78">
+        <v>22</v>
+      </c>
+      <c r="X3" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ3" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="134">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP3" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS3" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU3" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV3" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="103">
+        <v>24</v>
+      </c>
+      <c r="B4" s="104">
+        <v>25</v>
+      </c>
+      <c r="C4" s="132">
+        <v>26</v>
+      </c>
+      <c r="D4" s="104">
+        <v>27</v>
+      </c>
+      <c r="E4" s="104">
+        <v>28</v>
+      </c>
+      <c r="F4" s="104">
+        <v>29</v>
+      </c>
+      <c r="G4" s="132">
+        <v>30</v>
+      </c>
+      <c r="H4" s="104">
+        <v>31</v>
+      </c>
+      <c r="I4" s="104">
+        <v>32</v>
+      </c>
+      <c r="J4" s="104">
+        <v>33</v>
+      </c>
+      <c r="K4" s="104">
+        <v>34</v>
+      </c>
+      <c r="L4" s="133">
+        <v>35</v>
+      </c>
+      <c r="M4" s="103">
+        <v>24</v>
+      </c>
+      <c r="N4" s="104">
+        <v>25</v>
+      </c>
+      <c r="O4" s="105">
+        <v>26</v>
+      </c>
+      <c r="P4" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="105">
+        <v>28</v>
+      </c>
+      <c r="R4" s="74">
+        <v>29</v>
+      </c>
+      <c r="S4" s="105">
+        <v>30</v>
+      </c>
+      <c r="T4" s="104">
+        <v>31</v>
+      </c>
+      <c r="U4" s="105">
+        <v>32</v>
+      </c>
+      <c r="V4" s="74">
+        <v>33</v>
+      </c>
+      <c r="W4" s="105">
+        <v>34</v>
+      </c>
+      <c r="X4" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI4" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL4" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM4" s="104">
+        <v>26</v>
+      </c>
+      <c r="AN4" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO4" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP4" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ4" s="132">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS4" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT4" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU4" s="132">
+        <v>34</v>
+      </c>
+      <c r="AV4" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="98">
+        <v>0</v>
+      </c>
+      <c r="B5" s="99">
+        <v>1</v>
+      </c>
+      <c r="C5" s="99">
+        <v>2</v>
+      </c>
+      <c r="D5" s="99">
+        <v>3</v>
+      </c>
+      <c r="E5" s="130">
+        <v>4</v>
+      </c>
+      <c r="F5" s="99">
+        <v>5</v>
+      </c>
+      <c r="G5" s="99">
+        <v>6</v>
+      </c>
+      <c r="H5" s="130">
+        <v>7</v>
+      </c>
+      <c r="I5" s="99">
+        <v>8</v>
+      </c>
+      <c r="J5" s="99">
+        <v>9</v>
+      </c>
+      <c r="K5" s="99">
+        <v>10</v>
+      </c>
+      <c r="L5" s="100">
+        <v>11</v>
+      </c>
+      <c r="M5" s="98">
+        <v>0</v>
+      </c>
+      <c r="N5" s="99">
+        <v>1</v>
+      </c>
+      <c r="O5" s="99">
+        <v>2</v>
+      </c>
+      <c r="P5" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="74">
+        <v>4</v>
+      </c>
+      <c r="R5" s="99">
+        <v>5</v>
+      </c>
+      <c r="S5" s="99">
+        <v>6</v>
+      </c>
+      <c r="T5" s="74">
+        <v>7</v>
+      </c>
+      <c r="U5" s="99">
+        <v>8</v>
+      </c>
+      <c r="V5" s="99">
+        <v>9</v>
+      </c>
+      <c r="W5" s="99">
+        <v>10</v>
+      </c>
+      <c r="X5" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK5" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="99">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR5" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="99">
+        <v>9</v>
+      </c>
+      <c r="AU5" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="101">
+        <v>12</v>
+      </c>
+      <c r="B6" s="58">
+        <v>13</v>
+      </c>
+      <c r="C6" s="74">
+        <v>14</v>
+      </c>
+      <c r="D6" s="58">
+        <v>15</v>
+      </c>
+      <c r="E6" s="58">
+        <v>16</v>
+      </c>
+      <c r="F6" s="58">
+        <v>17</v>
+      </c>
+      <c r="G6" s="78">
+        <v>18</v>
+      </c>
+      <c r="H6" s="58">
+        <v>19</v>
+      </c>
+      <c r="I6" s="78">
+        <v>20</v>
+      </c>
+      <c r="J6" s="74">
+        <v>21</v>
+      </c>
+      <c r="K6" s="78">
+        <v>22</v>
+      </c>
+      <c r="L6" s="102">
+        <v>23</v>
+      </c>
+      <c r="M6" s="101">
+        <v>12</v>
+      </c>
+      <c r="N6" s="58">
+        <v>13</v>
+      </c>
+      <c r="O6" s="74">
+        <v>14</v>
+      </c>
+      <c r="P6" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="78">
+        <v>16</v>
+      </c>
+      <c r="R6" s="58">
+        <v>17</v>
+      </c>
+      <c r="S6" s="78">
+        <v>18</v>
+      </c>
+      <c r="T6" s="58">
+        <v>19</v>
+      </c>
+      <c r="U6" s="78">
+        <v>20</v>
+      </c>
+      <c r="V6" s="74">
+        <v>21</v>
+      </c>
+      <c r="W6" s="78">
+        <v>22</v>
+      </c>
+      <c r="X6" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE6" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI6" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK6" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM6" s="74">
+        <v>14</v>
+      </c>
+      <c r="AN6" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP6" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ6" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS6" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT6" s="74">
+        <v>21</v>
+      </c>
+      <c r="AU6" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV6" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="135">
+        <v>24</v>
+      </c>
+      <c r="B7" s="104">
+        <v>25</v>
+      </c>
+      <c r="C7" s="105">
+        <v>26</v>
+      </c>
+      <c r="D7" s="104">
+        <v>27</v>
+      </c>
+      <c r="E7" s="105">
+        <v>28</v>
+      </c>
+      <c r="F7" s="104">
+        <v>29</v>
+      </c>
+      <c r="G7" s="105">
+        <v>30</v>
+      </c>
+      <c r="H7" s="104">
+        <v>31</v>
+      </c>
+      <c r="I7" s="105">
+        <v>32</v>
+      </c>
+      <c r="J7" s="104">
+        <v>33</v>
+      </c>
+      <c r="K7" s="105">
+        <v>34</v>
+      </c>
+      <c r="L7" s="106">
+        <v>35</v>
+      </c>
+      <c r="M7" s="103">
+        <v>24</v>
+      </c>
+      <c r="N7" s="104">
+        <v>25</v>
+      </c>
+      <c r="O7" s="105">
+        <v>26</v>
+      </c>
+      <c r="P7" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="105">
+        <v>28</v>
+      </c>
+      <c r="R7" s="104">
+        <v>29</v>
+      </c>
+      <c r="S7" s="105">
+        <v>30</v>
+      </c>
+      <c r="T7" s="104">
+        <v>31</v>
+      </c>
+      <c r="U7" s="105">
+        <v>32</v>
+      </c>
+      <c r="V7" s="104">
+        <v>33</v>
+      </c>
+      <c r="W7" s="105">
+        <v>34</v>
+      </c>
+      <c r="X7" s="74">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH7" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ7" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK7" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL7" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM7" s="105">
+        <v>26</v>
+      </c>
+      <c r="AN7" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO7" s="132">
+        <v>28</v>
+      </c>
+      <c r="AP7" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR7" s="132">
+        <v>31</v>
+      </c>
+      <c r="AS7" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT7" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU7" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="98">
+        <v>0</v>
+      </c>
+      <c r="B8" s="99">
+        <v>1</v>
+      </c>
+      <c r="C8" s="130">
+        <v>2</v>
+      </c>
+      <c r="D8" s="99">
+        <v>3</v>
+      </c>
+      <c r="E8" s="99">
+        <v>4</v>
+      </c>
+      <c r="F8" s="99">
+        <v>5</v>
+      </c>
+      <c r="G8" s="99">
+        <v>6</v>
+      </c>
+      <c r="H8" s="99">
+        <v>7</v>
+      </c>
+      <c r="I8" s="99">
+        <v>8</v>
+      </c>
+      <c r="J8" s="99">
+        <v>9</v>
+      </c>
+      <c r="K8" s="99">
+        <v>10</v>
+      </c>
+      <c r="L8" s="136">
+        <v>11</v>
+      </c>
+      <c r="M8" s="74">
+        <v>0</v>
+      </c>
+      <c r="N8" s="99">
+        <v>1</v>
+      </c>
+      <c r="O8" s="99">
+        <v>2</v>
+      </c>
+      <c r="P8" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="99">
+        <v>4</v>
+      </c>
+      <c r="R8" s="99">
+        <v>5</v>
+      </c>
+      <c r="S8" s="99">
+        <v>6</v>
+      </c>
+      <c r="T8" s="99">
+        <v>7</v>
+      </c>
+      <c r="U8" s="99">
+        <v>8</v>
+      </c>
+      <c r="V8" s="74">
+        <v>9</v>
+      </c>
+      <c r="W8" s="99">
+        <v>10</v>
+      </c>
+      <c r="X8" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI8" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK8" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="130">
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS8" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT8" s="99">
+        <v>9</v>
+      </c>
+      <c r="AU8" s="130">
+        <v>10</v>
+      </c>
+      <c r="AV8" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="101">
+        <v>12</v>
+      </c>
+      <c r="B9" s="58">
+        <v>13</v>
+      </c>
+      <c r="C9" s="58">
+        <v>14</v>
+      </c>
+      <c r="D9" s="58">
+        <v>15</v>
+      </c>
+      <c r="E9" s="78">
+        <v>16</v>
+      </c>
+      <c r="F9" s="58">
+        <v>17</v>
+      </c>
+      <c r="G9" s="78">
+        <v>18</v>
+      </c>
+      <c r="H9" s="58">
+        <v>19</v>
+      </c>
+      <c r="I9" s="74">
+        <v>20</v>
+      </c>
+      <c r="J9" s="58">
+        <v>21</v>
+      </c>
+      <c r="K9" s="78">
+        <v>22</v>
+      </c>
+      <c r="L9" s="102">
+        <v>23</v>
+      </c>
+      <c r="M9" s="101">
+        <v>12</v>
+      </c>
+      <c r="N9" s="58">
+        <v>13</v>
+      </c>
+      <c r="O9" s="78">
+        <v>14</v>
+      </c>
+      <c r="P9" s="74">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="78">
+        <v>16</v>
+      </c>
+      <c r="R9" s="58">
+        <v>17</v>
+      </c>
+      <c r="S9" s="78">
+        <v>18</v>
+      </c>
+      <c r="T9" s="58">
+        <v>19</v>
+      </c>
+      <c r="U9" s="78">
+        <v>20</v>
+      </c>
+      <c r="V9" s="58">
+        <v>21</v>
+      </c>
+      <c r="W9" s="78">
+        <v>22</v>
+      </c>
+      <c r="X9" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE9" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF9" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG9" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH9" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ9" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK9" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM9" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="74">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP9" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR9" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS9" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT9" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU9" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="103">
+        <v>24</v>
+      </c>
+      <c r="B10" s="132">
+        <v>25</v>
+      </c>
+      <c r="C10" s="105">
+        <v>26</v>
+      </c>
+      <c r="D10" s="104">
+        <v>27</v>
+      </c>
+      <c r="E10" s="105">
+        <v>28</v>
+      </c>
+      <c r="F10" s="104">
+        <v>29</v>
+      </c>
+      <c r="G10" s="132">
+        <v>30</v>
+      </c>
+      <c r="H10" s="104">
+        <v>31</v>
+      </c>
+      <c r="I10" s="104">
+        <v>32</v>
+      </c>
+      <c r="J10" s="104">
+        <v>33</v>
+      </c>
+      <c r="K10" s="105">
+        <v>34</v>
+      </c>
+      <c r="L10" s="106">
+        <v>35</v>
+      </c>
+      <c r="M10" s="103">
+        <v>24</v>
+      </c>
+      <c r="N10" s="104">
+        <v>25</v>
+      </c>
+      <c r="O10" s="105">
+        <v>26</v>
+      </c>
+      <c r="P10" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="105">
+        <v>28</v>
+      </c>
+      <c r="R10" s="74">
+        <v>29</v>
+      </c>
+      <c r="S10" s="105">
+        <v>30</v>
+      </c>
+      <c r="T10" s="104">
+        <v>31</v>
+      </c>
+      <c r="U10" s="105">
+        <v>32</v>
+      </c>
+      <c r="V10" s="104">
+        <v>33</v>
+      </c>
+      <c r="W10" s="74">
+        <v>34</v>
+      </c>
+      <c r="X10" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG10" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH10" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI10" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ10" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK10" s="135">
+        <v>24</v>
+      </c>
+      <c r="AL10" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="105">
+        <v>26</v>
+      </c>
+      <c r="AN10" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP10" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ10" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR10" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS10" s="104">
+        <v>32</v>
+      </c>
+      <c r="AT10" s="132">
+        <v>33</v>
+      </c>
+      <c r="AU10" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV10" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="98">
+        <v>0</v>
+      </c>
+      <c r="B11" s="99">
+        <v>1</v>
+      </c>
+      <c r="C11" s="99">
+        <v>2</v>
+      </c>
+      <c r="D11" s="99">
+        <v>3</v>
+      </c>
+      <c r="E11" s="137">
+        <v>4</v>
+      </c>
+      <c r="F11" s="99">
+        <v>5</v>
+      </c>
+      <c r="G11" s="99">
+        <v>6</v>
+      </c>
+      <c r="H11" s="130">
+        <v>7</v>
+      </c>
+      <c r="I11" s="99">
+        <v>8</v>
+      </c>
+      <c r="J11" s="99">
+        <v>9</v>
+      </c>
+      <c r="K11" s="99">
+        <v>10</v>
+      </c>
+      <c r="L11" s="136">
+        <v>11</v>
+      </c>
+      <c r="M11" s="74">
+        <v>0</v>
+      </c>
+      <c r="N11" s="99">
+        <v>1</v>
+      </c>
+      <c r="O11" s="99">
+        <v>2</v>
+      </c>
+      <c r="P11" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>4</v>
+      </c>
+      <c r="R11" s="99">
+        <v>5</v>
+      </c>
+      <c r="S11" s="99">
+        <v>6</v>
+      </c>
+      <c r="T11" s="99">
+        <v>7</v>
+      </c>
+      <c r="U11" s="99">
+        <v>8</v>
+      </c>
+      <c r="V11" s="99">
+        <v>9</v>
+      </c>
+      <c r="W11" s="99">
+        <v>10</v>
+      </c>
+      <c r="X11" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI11" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK11" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="99">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="130">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="99">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="130">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="101">
+        <v>12</v>
+      </c>
+      <c r="B12" s="58">
+        <v>13</v>
+      </c>
+      <c r="C12" s="78">
+        <v>14</v>
+      </c>
+      <c r="D12" s="58">
+        <v>15</v>
+      </c>
+      <c r="E12" s="78">
+        <v>16</v>
+      </c>
+      <c r="F12" s="74">
+        <v>17</v>
+      </c>
+      <c r="G12" s="58">
+        <v>18</v>
+      </c>
+      <c r="H12" s="58">
+        <v>19</v>
+      </c>
+      <c r="I12" s="78">
+        <v>20</v>
+      </c>
+      <c r="J12" s="58">
+        <v>21</v>
+      </c>
+      <c r="K12" s="78">
+        <v>22</v>
+      </c>
+      <c r="L12" s="102">
+        <v>23</v>
+      </c>
+      <c r="M12" s="101">
+        <v>12</v>
+      </c>
+      <c r="N12" s="58">
+        <v>13</v>
+      </c>
+      <c r="O12" s="78">
+        <v>14</v>
+      </c>
+      <c r="P12" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="78">
+        <v>16</v>
+      </c>
+      <c r="R12" s="58">
+        <v>17</v>
+      </c>
+      <c r="S12" s="74">
+        <v>18</v>
+      </c>
+      <c r="T12" s="58">
+        <v>19</v>
+      </c>
+      <c r="U12" s="78">
+        <v>20</v>
+      </c>
+      <c r="V12" s="58">
+        <v>21</v>
+      </c>
+      <c r="W12" s="78">
+        <v>22</v>
+      </c>
+      <c r="X12" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE12" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF12" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG12" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH12" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI12" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ12" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK12" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM12" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN12" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP12" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ12" s="74">
+        <v>18</v>
+      </c>
+      <c r="AR12" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS12" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT12" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU12" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="103">
+        <v>24</v>
+      </c>
+      <c r="B13" s="132">
+        <v>25</v>
+      </c>
+      <c r="C13" s="105">
+        <v>26</v>
+      </c>
+      <c r="D13" s="132">
+        <v>27</v>
+      </c>
+      <c r="E13" s="105">
+        <v>28</v>
+      </c>
+      <c r="F13" s="105">
+        <v>29</v>
+      </c>
+      <c r="G13" s="105">
+        <v>30</v>
+      </c>
+      <c r="H13" s="104">
+        <v>31</v>
+      </c>
+      <c r="I13" s="105">
+        <v>32</v>
+      </c>
+      <c r="J13" s="104">
+        <v>33</v>
+      </c>
+      <c r="K13" s="105">
+        <v>34</v>
+      </c>
+      <c r="L13" s="133">
+        <v>35</v>
+      </c>
+      <c r="M13" s="103">
+        <v>24</v>
+      </c>
+      <c r="N13" s="104">
+        <v>25</v>
+      </c>
+      <c r="O13" s="105">
+        <v>26</v>
+      </c>
+      <c r="P13" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="105">
+        <v>28</v>
+      </c>
+      <c r="R13" s="104">
+        <v>29</v>
+      </c>
+      <c r="S13" s="105">
+        <v>30</v>
+      </c>
+      <c r="T13" s="104">
+        <v>31</v>
+      </c>
+      <c r="U13" s="74">
+        <v>32</v>
+      </c>
+      <c r="V13" s="104">
+        <v>33</v>
+      </c>
+      <c r="W13" s="74">
+        <v>34</v>
+      </c>
+      <c r="X13" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH13" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ13" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK13" s="135">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM13" s="104">
+        <v>26</v>
+      </c>
+      <c r="AN13" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO13" s="132">
+        <v>28</v>
+      </c>
+      <c r="AP13" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ13" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR13" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS13" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU13" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV13" s="133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="74">
+        <v>0</v>
+      </c>
+      <c r="B14" s="99">
+        <v>1</v>
+      </c>
+      <c r="C14" s="99">
+        <v>2</v>
+      </c>
+      <c r="D14" s="99">
+        <v>3</v>
+      </c>
+      <c r="E14" s="99">
+        <v>4</v>
+      </c>
+      <c r="F14" s="99">
+        <v>5</v>
+      </c>
+      <c r="G14" s="99">
+        <v>6</v>
+      </c>
+      <c r="H14" s="99">
+        <v>7</v>
+      </c>
+      <c r="I14" s="99">
+        <v>8</v>
+      </c>
+      <c r="J14" s="99">
+        <v>9</v>
+      </c>
+      <c r="K14" s="99">
+        <v>10</v>
+      </c>
+      <c r="L14" s="100">
+        <v>11</v>
+      </c>
+      <c r="M14" s="98">
+        <v>0</v>
+      </c>
+      <c r="N14" s="99">
+        <v>1</v>
+      </c>
+      <c r="O14" s="99">
+        <v>2</v>
+      </c>
+      <c r="P14" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="99">
+        <v>4</v>
+      </c>
+      <c r="R14" s="99">
+        <v>5</v>
+      </c>
+      <c r="S14" s="99">
+        <v>6</v>
+      </c>
+      <c r="T14" s="99">
+        <v>7</v>
+      </c>
+      <c r="U14" s="99">
+        <v>8</v>
+      </c>
+      <c r="V14" s="99">
+        <v>9</v>
+      </c>
+      <c r="W14" s="99">
+        <v>10</v>
+      </c>
+      <c r="X14" s="74">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI14" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK14" s="128">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="68">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="68">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="129">
+        <v>4</v>
+      </c>
+      <c r="AP14" s="68">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="129">
+        <v>6</v>
+      </c>
+      <c r="AR14" s="68">
+        <v>7</v>
+      </c>
+      <c r="AS14" s="68">
+        <v>8</v>
+      </c>
+      <c r="AT14" s="68">
+        <v>9</v>
+      </c>
+      <c r="AU14" s="68">
+        <v>10</v>
+      </c>
+      <c r="AV14" s="68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="101">
+        <v>12</v>
+      </c>
+      <c r="B15" s="58">
+        <v>13</v>
+      </c>
+      <c r="C15" s="74">
+        <v>14</v>
+      </c>
+      <c r="D15" s="58">
+        <v>15</v>
+      </c>
+      <c r="E15" s="78">
+        <v>16</v>
+      </c>
+      <c r="F15" s="58">
+        <v>17</v>
+      </c>
+      <c r="G15" s="58">
+        <v>18</v>
+      </c>
+      <c r="H15" s="58">
+        <v>19</v>
+      </c>
+      <c r="I15" s="78">
+        <v>20</v>
+      </c>
+      <c r="J15" s="58">
+        <v>21</v>
+      </c>
+      <c r="K15" s="74">
+        <v>22</v>
+      </c>
+      <c r="L15" s="102">
+        <v>23</v>
+      </c>
+      <c r="M15" s="101">
+        <v>12</v>
+      </c>
+      <c r="N15" s="74">
+        <v>13</v>
+      </c>
+      <c r="O15" s="78">
+        <v>14</v>
+      </c>
+      <c r="P15" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="78">
+        <v>16</v>
+      </c>
+      <c r="R15" s="58">
+        <v>17</v>
+      </c>
+      <c r="S15" s="78">
+        <v>18</v>
+      </c>
+      <c r="T15" s="58">
+        <v>19</v>
+      </c>
+      <c r="U15" s="78">
+        <v>20</v>
+      </c>
+      <c r="V15" s="74">
+        <v>21</v>
+      </c>
+      <c r="W15" s="78">
+        <v>22</v>
+      </c>
+      <c r="X15" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG15" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH15" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI15" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK15" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="74">
+        <v>13</v>
+      </c>
+      <c r="AM15" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN15" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO15" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP15" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ15" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR15" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS15" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT15" s="74">
+        <v>21</v>
+      </c>
+      <c r="AU15" s="58">
+        <v>22</v>
+      </c>
+      <c r="AV15" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="58">
+        <v>24</v>
+      </c>
+      <c r="B16" s="104">
+        <v>25</v>
+      </c>
+      <c r="C16" s="105">
+        <v>26</v>
+      </c>
+      <c r="D16" s="104">
+        <v>27</v>
+      </c>
+      <c r="E16" s="105">
+        <v>28</v>
+      </c>
+      <c r="F16" s="74">
+        <v>29</v>
+      </c>
+      <c r="G16" s="105">
+        <v>30</v>
+      </c>
+      <c r="H16" s="74">
+        <v>31</v>
+      </c>
+      <c r="I16" s="58">
+        <v>32</v>
+      </c>
+      <c r="J16" s="104">
+        <v>33</v>
+      </c>
+      <c r="K16" s="105">
+        <v>34</v>
+      </c>
+      <c r="L16" s="106">
+        <v>35</v>
+      </c>
+      <c r="M16" s="103">
+        <v>24</v>
+      </c>
+      <c r="N16" s="104">
+        <v>25</v>
+      </c>
+      <c r="O16" s="105">
+        <v>26</v>
+      </c>
+      <c r="P16" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="74">
+        <v>28</v>
+      </c>
+      <c r="R16" s="104">
+        <v>29</v>
+      </c>
+      <c r="S16" s="74">
+        <v>30</v>
+      </c>
+      <c r="T16" s="104">
+        <v>31</v>
+      </c>
+      <c r="U16" s="105">
+        <v>32</v>
+      </c>
+      <c r="V16" s="104">
+        <v>33</v>
+      </c>
+      <c r="W16" s="105">
+        <v>34</v>
+      </c>
+      <c r="X16" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB16" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC16" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE16" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH16" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI16" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ16" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK16" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL16" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM16" s="58">
+        <v>26</v>
+      </c>
+      <c r="AN16" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO16" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP16" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR16" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS16" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT16" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU16" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV16" s="74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="98">
+        <v>0</v>
+      </c>
+      <c r="B17" s="74">
+        <v>1</v>
+      </c>
+      <c r="C17" s="99">
+        <v>2</v>
+      </c>
+      <c r="D17" s="99">
+        <v>3</v>
+      </c>
+      <c r="E17" s="99">
+        <v>4</v>
+      </c>
+      <c r="F17" s="99">
+        <v>5</v>
+      </c>
+      <c r="G17" s="74">
+        <v>6</v>
+      </c>
+      <c r="H17" s="99">
+        <v>7</v>
+      </c>
+      <c r="I17" s="99">
+        <v>8</v>
+      </c>
+      <c r="J17" s="99">
+        <v>9</v>
+      </c>
+      <c r="K17" s="99">
+        <v>10</v>
+      </c>
+      <c r="L17" s="99">
+        <v>11</v>
+      </c>
+      <c r="M17" s="98">
+        <v>0</v>
+      </c>
+      <c r="N17" s="99">
+        <v>1</v>
+      </c>
+      <c r="O17" s="99">
+        <v>2</v>
+      </c>
+      <c r="P17" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="99">
+        <v>4</v>
+      </c>
+      <c r="R17" s="74">
+        <v>5</v>
+      </c>
+      <c r="S17" s="99">
+        <v>6</v>
+      </c>
+      <c r="T17" s="99">
+        <v>7</v>
+      </c>
+      <c r="U17" s="99">
+        <v>8</v>
+      </c>
+      <c r="V17" s="99">
+        <v>9</v>
+      </c>
+      <c r="W17" s="74">
+        <v>10</v>
+      </c>
+      <c r="X17" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF17" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK17" s="74">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP17" s="58">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR17" s="58">
+        <v>7</v>
+      </c>
+      <c r="AS17" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT17" s="74">
+        <v>9</v>
+      </c>
+      <c r="AU17" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV17" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="101">
+        <v>12</v>
+      </c>
+      <c r="B18" s="58">
+        <v>13</v>
+      </c>
+      <c r="C18" s="78">
+        <v>14</v>
+      </c>
+      <c r="D18" s="58">
+        <v>15</v>
+      </c>
+      <c r="E18" s="78">
+        <v>16</v>
+      </c>
+      <c r="F18" s="58">
+        <v>17</v>
+      </c>
+      <c r="G18" s="78">
+        <v>18</v>
+      </c>
+      <c r="H18" s="58">
+        <v>19</v>
+      </c>
+      <c r="I18" s="78">
+        <v>20</v>
+      </c>
+      <c r="J18" s="74">
+        <v>21</v>
+      </c>
+      <c r="K18" s="78">
+        <v>22</v>
+      </c>
+      <c r="L18" s="78">
+        <v>23</v>
+      </c>
+      <c r="M18" s="101">
+        <v>12</v>
+      </c>
+      <c r="N18" s="58">
+        <v>13</v>
+      </c>
+      <c r="O18" s="74">
+        <v>14</v>
+      </c>
+      <c r="P18" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>16</v>
+      </c>
+      <c r="R18" s="58">
+        <v>17</v>
+      </c>
+      <c r="S18" s="78">
+        <v>18</v>
+      </c>
+      <c r="T18" s="58">
+        <v>19</v>
+      </c>
+      <c r="U18" s="78">
+        <v>20</v>
+      </c>
+      <c r="V18" s="58">
+        <v>21</v>
+      </c>
+      <c r="W18" s="78">
+        <v>22</v>
+      </c>
+      <c r="X18" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE18" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF18" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG18" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH18" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI18" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ18" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK18" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM18" s="74">
+        <v>14</v>
+      </c>
+      <c r="AN18" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO18" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP18" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ18" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR18" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS18" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT18" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU18" s="58">
+        <v>22</v>
+      </c>
+      <c r="AV18" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="103">
+        <v>24</v>
+      </c>
+      <c r="B19" s="104">
+        <v>25</v>
+      </c>
+      <c r="C19" s="74">
+        <v>26</v>
+      </c>
+      <c r="D19" s="104">
+        <v>27</v>
+      </c>
+      <c r="E19" s="58">
+        <v>28</v>
+      </c>
+      <c r="F19" s="104">
+        <v>29</v>
+      </c>
+      <c r="G19" s="58">
+        <v>30</v>
+      </c>
+      <c r="H19" s="104">
+        <v>31</v>
+      </c>
+      <c r="I19" s="105">
+        <v>32</v>
+      </c>
+      <c r="J19" s="104">
+        <v>33</v>
+      </c>
+      <c r="K19" s="105">
+        <v>34</v>
+      </c>
+      <c r="L19" s="74">
+        <v>35</v>
+      </c>
+      <c r="M19" s="74">
+        <v>24</v>
+      </c>
+      <c r="N19" s="104">
+        <v>25</v>
+      </c>
+      <c r="O19" s="105">
+        <v>26</v>
+      </c>
+      <c r="P19" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="105">
+        <v>28</v>
+      </c>
+      <c r="R19" s="104">
+        <v>29</v>
+      </c>
+      <c r="S19" s="105">
+        <v>30</v>
+      </c>
+      <c r="T19" s="104">
+        <v>31</v>
+      </c>
+      <c r="U19" s="105">
+        <v>32</v>
+      </c>
+      <c r="V19" s="74">
+        <v>33</v>
+      </c>
+      <c r="W19" s="105">
+        <v>34</v>
+      </c>
+      <c r="X19" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z19" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB19" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC19" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD19" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE19" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH19" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI19" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ19" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK19" s="58">
+        <v>24</v>
+      </c>
+      <c r="AL19" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM19" s="58">
+        <v>26</v>
+      </c>
+      <c r="AN19" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO19" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP19" s="74">
+        <v>29</v>
+      </c>
+      <c r="AQ19" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR19" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS19" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT19" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU19" s="74">
+        <v>34</v>
+      </c>
+      <c r="AV19" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="98">
+        <v>0</v>
+      </c>
+      <c r="B20" s="99">
+        <v>1</v>
+      </c>
+      <c r="C20" s="99">
+        <v>2</v>
+      </c>
+      <c r="D20" s="99">
+        <v>3</v>
+      </c>
+      <c r="E20" s="99">
+        <v>4</v>
+      </c>
+      <c r="F20" s="99">
+        <v>5</v>
+      </c>
+      <c r="G20" s="99">
+        <v>6</v>
+      </c>
+      <c r="H20" s="74">
+        <v>7</v>
+      </c>
+      <c r="I20" s="99">
+        <v>8</v>
+      </c>
+      <c r="J20" s="74">
+        <v>9</v>
+      </c>
+      <c r="K20" s="99">
+        <v>10</v>
+      </c>
+      <c r="L20" s="100">
+        <v>11</v>
+      </c>
+      <c r="M20" s="98">
+        <v>0</v>
+      </c>
+      <c r="N20" s="99">
+        <v>1</v>
+      </c>
+      <c r="O20" s="74">
+        <v>2</v>
+      </c>
+      <c r="P20" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="74">
+        <v>4</v>
+      </c>
+      <c r="R20" s="99">
+        <v>5</v>
+      </c>
+      <c r="S20" s="99">
+        <v>6</v>
+      </c>
+      <c r="T20" s="99">
+        <v>7</v>
+      </c>
+      <c r="U20" s="99">
+        <v>8</v>
+      </c>
+      <c r="V20" s="99">
+        <v>9</v>
+      </c>
+      <c r="W20" s="99">
+        <v>10</v>
+      </c>
+      <c r="X20" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI20" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK20" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="74">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP20" s="58">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR20" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS20" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT20" s="99">
+        <v>9</v>
+      </c>
+      <c r="AU20" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV20" s="58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="74">
+        <v>12</v>
+      </c>
+      <c r="B21" s="58">
+        <v>13</v>
+      </c>
+      <c r="C21" s="74">
+        <v>14</v>
+      </c>
+      <c r="D21" s="58">
+        <v>15</v>
+      </c>
+      <c r="E21" s="78">
+        <v>16</v>
+      </c>
+      <c r="F21" s="58">
+        <v>17</v>
+      </c>
+      <c r="G21" s="78">
+        <v>18</v>
+      </c>
+      <c r="H21" s="58">
+        <v>19</v>
+      </c>
+      <c r="I21" s="78">
+        <v>20</v>
+      </c>
+      <c r="J21" s="58">
+        <v>21</v>
+      </c>
+      <c r="K21" s="58">
+        <v>22</v>
+      </c>
+      <c r="L21" s="102">
+        <v>23</v>
+      </c>
+      <c r="M21" s="101">
+        <v>12</v>
+      </c>
+      <c r="N21" s="58">
+        <v>13</v>
+      </c>
+      <c r="O21" s="78">
+        <v>14</v>
+      </c>
+      <c r="P21" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="78">
+        <v>16</v>
+      </c>
+      <c r="R21" s="58">
+        <v>17</v>
+      </c>
+      <c r="S21" s="78">
+        <v>18</v>
+      </c>
+      <c r="T21" s="58">
+        <v>19</v>
+      </c>
+      <c r="U21" s="78">
+        <v>20</v>
+      </c>
+      <c r="V21" s="74">
+        <v>21</v>
+      </c>
+      <c r="W21" s="78">
+        <v>22</v>
+      </c>
+      <c r="X21" s="74">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB21" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC21" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE21" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH21" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI21" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ21" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK21" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM21" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN21" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO21" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP21" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ21" s="58">
+        <v>18</v>
+      </c>
+      <c r="AR21" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS21" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT21" s="74">
+        <v>21</v>
+      </c>
+      <c r="AU21" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV21" s="74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="78">
+        <v>24</v>
+      </c>
+      <c r="B22" s="104">
+        <v>25</v>
+      </c>
+      <c r="C22" s="105">
+        <v>26</v>
+      </c>
+      <c r="D22" s="104">
+        <v>27</v>
+      </c>
+      <c r="E22" s="105">
+        <v>28</v>
+      </c>
+      <c r="F22" s="104">
+        <v>29</v>
+      </c>
+      <c r="G22" s="58">
+        <v>30</v>
+      </c>
+      <c r="H22" s="104">
+        <v>31</v>
+      </c>
+      <c r="I22" s="105">
+        <v>32</v>
+      </c>
+      <c r="J22" s="104">
+        <v>33</v>
+      </c>
+      <c r="K22" s="74">
+        <v>34</v>
+      </c>
+      <c r="L22" s="106">
+        <v>35</v>
+      </c>
+      <c r="M22" s="103">
+        <v>24</v>
+      </c>
+      <c r="N22" s="74">
+        <v>25</v>
+      </c>
+      <c r="O22" s="105">
+        <v>26</v>
+      </c>
+      <c r="P22" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="105">
+        <v>28</v>
+      </c>
+      <c r="R22" s="104">
+        <v>29</v>
+      </c>
+      <c r="S22" s="105">
+        <v>30</v>
+      </c>
+      <c r="T22" s="104">
+        <v>31</v>
+      </c>
+      <c r="U22" s="105">
+        <v>32</v>
+      </c>
+      <c r="V22" s="104">
+        <v>33</v>
+      </c>
+      <c r="W22" s="105">
+        <v>34</v>
+      </c>
+      <c r="X22" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y22" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD22" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG22" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH22" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI22" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ22" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL22" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM22" s="74">
+        <v>26</v>
+      </c>
+      <c r="AN22" s="58">
+        <v>27</v>
+      </c>
+      <c r="AO22" s="74">
+        <v>28</v>
+      </c>
+      <c r="AP22" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ22" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR22" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS22" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT22" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU22" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV22" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="78">
+        <v>0</v>
+      </c>
+      <c r="B23" s="74">
+        <v>1</v>
+      </c>
+      <c r="C23" s="99">
+        <v>2</v>
+      </c>
+      <c r="D23" s="99">
+        <v>3</v>
+      </c>
+      <c r="E23" s="99">
+        <v>4</v>
+      </c>
+      <c r="F23" s="99">
+        <v>5</v>
+      </c>
+      <c r="G23" s="99">
+        <v>6</v>
+      </c>
+      <c r="H23" s="78">
+        <v>7</v>
+      </c>
+      <c r="I23" s="99">
+        <v>8</v>
+      </c>
+      <c r="J23" s="74">
+        <v>9</v>
+      </c>
+      <c r="K23" s="99">
+        <v>10</v>
+      </c>
+      <c r="L23" s="100">
+        <v>11</v>
+      </c>
+      <c r="M23" s="98">
+        <v>0</v>
+      </c>
+      <c r="N23" s="99">
+        <v>1</v>
+      </c>
+      <c r="O23" s="74">
+        <v>2</v>
+      </c>
+      <c r="P23" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="99">
+        <v>4</v>
+      </c>
+      <c r="R23" s="99">
+        <v>5</v>
+      </c>
+      <c r="S23" s="99">
+        <v>6</v>
+      </c>
+      <c r="T23" s="99">
+        <v>7</v>
+      </c>
+      <c r="U23" s="99">
+        <v>8</v>
+      </c>
+      <c r="V23" s="99">
+        <v>9</v>
+      </c>
+      <c r="W23" s="74">
+        <v>10</v>
+      </c>
+      <c r="X23" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y23" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH23" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI23" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK23" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="74">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP23" s="99">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="99">
+        <v>6</v>
+      </c>
+      <c r="AR23" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS23" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT23" s="58">
+        <v>9</v>
+      </c>
+      <c r="AU23" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV23" s="74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="101">
+        <v>12</v>
+      </c>
+      <c r="B24" s="58">
+        <v>13</v>
+      </c>
+      <c r="C24" s="78">
+        <v>14</v>
+      </c>
+      <c r="D24" s="78">
+        <v>15</v>
+      </c>
+      <c r="E24" s="78">
+        <v>16</v>
+      </c>
+      <c r="F24" s="58">
+        <v>17</v>
+      </c>
+      <c r="G24" s="78">
+        <v>18</v>
+      </c>
+      <c r="H24" s="74">
+        <v>19</v>
+      </c>
+      <c r="I24" s="78">
+        <v>20</v>
+      </c>
+      <c r="J24" s="58">
+        <v>21</v>
+      </c>
+      <c r="K24" s="58">
+        <v>22</v>
+      </c>
+      <c r="L24" s="78">
+        <v>23</v>
+      </c>
+      <c r="M24" s="101">
+        <v>12</v>
+      </c>
+      <c r="N24" s="58">
+        <v>13</v>
+      </c>
+      <c r="O24" s="78">
+        <v>14</v>
+      </c>
+      <c r="P24" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="74">
+        <v>16</v>
+      </c>
+      <c r="R24" s="58">
+        <v>17</v>
+      </c>
+      <c r="S24" s="78">
+        <v>18</v>
+      </c>
+      <c r="T24" s="58">
+        <v>19</v>
+      </c>
+      <c r="U24" s="78">
+        <v>20</v>
+      </c>
+      <c r="V24" s="58">
+        <v>21</v>
+      </c>
+      <c r="W24" s="78">
+        <v>22</v>
+      </c>
+      <c r="X24" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA24" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC24" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE24" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF24" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI24" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ24" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK24" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM24" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN24" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO24" s="74">
+        <v>16</v>
+      </c>
+      <c r="AP24" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ24" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR24" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS24" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT24" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU24" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV24" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="74">
+        <v>24</v>
+      </c>
+      <c r="B25" s="104">
+        <v>25</v>
+      </c>
+      <c r="C25" s="58">
+        <v>26</v>
+      </c>
+      <c r="D25" s="104">
+        <v>27</v>
+      </c>
+      <c r="E25" s="105">
+        <v>28</v>
+      </c>
+      <c r="F25" s="104">
+        <v>29</v>
+      </c>
+      <c r="G25" s="105">
+        <v>30</v>
+      </c>
+      <c r="H25" s="104">
+        <v>31</v>
+      </c>
+      <c r="I25" s="105">
+        <v>32</v>
+      </c>
+      <c r="J25" s="78">
+        <v>33</v>
+      </c>
+      <c r="K25" s="74">
+        <v>34</v>
+      </c>
+      <c r="L25" s="106">
+        <v>35</v>
+      </c>
+      <c r="M25" s="103">
+        <v>24</v>
+      </c>
+      <c r="N25" s="74">
+        <v>25</v>
+      </c>
+      <c r="O25" s="105">
+        <v>26</v>
+      </c>
+      <c r="P25" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="105">
+        <v>28</v>
+      </c>
+      <c r="R25" s="104">
+        <v>29</v>
+      </c>
+      <c r="S25" s="105">
+        <v>30</v>
+      </c>
+      <c r="T25" s="104">
+        <v>31</v>
+      </c>
+      <c r="U25" s="105">
+        <v>32</v>
+      </c>
+      <c r="V25" s="104">
+        <v>33</v>
+      </c>
+      <c r="W25" s="105">
+        <v>34</v>
+      </c>
+      <c r="X25" s="74">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB25" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC25" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG25" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH25" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ25" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK25" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL25" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM25" s="74">
+        <v>26</v>
+      </c>
+      <c r="AN25" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO25" s="58">
+        <v>28</v>
+      </c>
+      <c r="AP25" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ25" s="58">
+        <v>30</v>
+      </c>
+      <c r="AR25" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS25" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT25" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU25" s="74">
+        <v>34</v>
+      </c>
+      <c r="AV25" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="78">
+        <v>0</v>
+      </c>
+      <c r="B26" s="74">
+        <v>1</v>
+      </c>
+      <c r="C26" s="99">
+        <v>2</v>
+      </c>
+      <c r="D26" s="99">
+        <v>3</v>
+      </c>
+      <c r="E26" s="99">
+        <v>4</v>
+      </c>
+      <c r="F26" s="99">
+        <v>5</v>
+      </c>
+      <c r="G26" s="78">
+        <v>6</v>
+      </c>
+      <c r="H26" s="99">
+        <v>7</v>
+      </c>
+      <c r="I26" s="99">
+        <v>8</v>
+      </c>
+      <c r="J26" s="99">
+        <v>9</v>
+      </c>
+      <c r="K26" s="99">
+        <v>10</v>
+      </c>
+      <c r="L26" s="99">
+        <v>11</v>
+      </c>
+      <c r="M26" s="98">
+        <v>0</v>
+      </c>
+      <c r="N26" s="99">
+        <v>1</v>
+      </c>
+      <c r="O26" s="99">
+        <v>2</v>
+      </c>
+      <c r="P26" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="99">
+        <v>4</v>
+      </c>
+      <c r="R26" s="99">
+        <v>5</v>
+      </c>
+      <c r="S26" s="99">
+        <v>6</v>
+      </c>
+      <c r="T26" s="99">
+        <v>7</v>
+      </c>
+      <c r="U26" s="99">
+        <v>8</v>
+      </c>
+      <c r="V26" s="99">
+        <v>9</v>
+      </c>
+      <c r="W26" s="74">
+        <v>10</v>
+      </c>
+      <c r="X26" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH26" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI26" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK26" s="74">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="99">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP26" s="99">
+        <v>5</v>
+      </c>
+      <c r="AQ26" s="74">
+        <v>6</v>
+      </c>
+      <c r="AR26" s="58">
+        <v>7</v>
+      </c>
+      <c r="AS26" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT26" s="58">
+        <v>9</v>
+      </c>
+      <c r="AU26" s="99">
+        <v>10</v>
+      </c>
+      <c r="AV26" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="101">
+        <v>12</v>
+      </c>
+      <c r="B27" s="58">
+        <v>13</v>
+      </c>
+      <c r="C27" s="78">
+        <v>14</v>
+      </c>
+      <c r="D27" s="74">
+        <v>15</v>
+      </c>
+      <c r="E27" s="78">
+        <v>16</v>
+      </c>
+      <c r="F27" s="58">
+        <v>17</v>
+      </c>
+      <c r="G27" s="78">
+        <v>18</v>
+      </c>
+      <c r="H27" s="74">
+        <v>19</v>
+      </c>
+      <c r="I27" s="78">
+        <v>20</v>
+      </c>
+      <c r="J27" s="58">
+        <v>21</v>
+      </c>
+      <c r="K27" s="78">
+        <v>22</v>
+      </c>
+      <c r="L27" s="102">
+        <v>23</v>
+      </c>
+      <c r="M27" s="101">
+        <v>12</v>
+      </c>
+      <c r="N27" s="58">
+        <v>13</v>
+      </c>
+      <c r="O27" s="78">
+        <v>14</v>
+      </c>
+      <c r="P27" s="58">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="74">
+        <v>16</v>
+      </c>
+      <c r="R27" s="58">
+        <v>17</v>
+      </c>
+      <c r="S27" s="78">
+        <v>18</v>
+      </c>
+      <c r="T27" s="58">
+        <v>19</v>
+      </c>
+      <c r="U27" s="74">
+        <v>20</v>
+      </c>
+      <c r="V27" s="58">
+        <v>21</v>
+      </c>
+      <c r="W27" s="78">
+        <v>22</v>
+      </c>
+      <c r="X27" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC27" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE27" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF27" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG27" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH27" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI27" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ27" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK27" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM27" s="58">
+        <v>14</v>
+      </c>
+      <c r="AN27" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO27" s="74">
+        <v>16</v>
+      </c>
+      <c r="AP27" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ27" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR27" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS27" s="74">
+        <v>20</v>
+      </c>
+      <c r="AT27" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU27" s="78">
+        <v>22</v>
+      </c>
+      <c r="AV27" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="103">
+        <v>24</v>
+      </c>
+      <c r="B28" s="104">
+        <v>25</v>
+      </c>
+      <c r="C28" s="58">
+        <v>26</v>
+      </c>
+      <c r="D28" s="104">
+        <v>27</v>
+      </c>
+      <c r="E28" s="78">
+        <v>28</v>
+      </c>
+      <c r="F28" s="74">
+        <v>29</v>
+      </c>
+      <c r="G28" s="105">
+        <v>30</v>
+      </c>
+      <c r="H28" s="104">
+        <v>31</v>
+      </c>
+      <c r="I28" s="78">
+        <v>32</v>
+      </c>
+      <c r="J28" s="104">
+        <v>33</v>
+      </c>
+      <c r="K28" s="105">
+        <v>34</v>
+      </c>
+      <c r="L28" s="74">
+        <v>35</v>
+      </c>
+      <c r="M28" s="74">
+        <v>24</v>
+      </c>
+      <c r="N28" s="104">
+        <v>25</v>
+      </c>
+      <c r="O28" s="105">
+        <v>26</v>
+      </c>
+      <c r="P28" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="105">
+        <v>28</v>
+      </c>
+      <c r="R28" s="104">
+        <v>29</v>
+      </c>
+      <c r="S28" s="74">
+        <v>30</v>
+      </c>
+      <c r="T28" s="104">
+        <v>31</v>
+      </c>
+      <c r="U28" s="105">
+        <v>32</v>
+      </c>
+      <c r="V28" s="104">
+        <v>33</v>
+      </c>
+      <c r="W28" s="105">
+        <v>34</v>
+      </c>
+      <c r="X28" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z28" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB28" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE28" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG28" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH28" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI28" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ28" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK28" s="58">
+        <v>24</v>
+      </c>
+      <c r="AL28" s="104">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="105">
+        <v>26</v>
+      </c>
+      <c r="AN28" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO28" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP28" s="104">
+        <v>29</v>
+      </c>
+      <c r="AQ28" s="58">
+        <v>30</v>
+      </c>
+      <c r="AR28" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS28" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT28" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU28" s="74">
+        <v>34</v>
+      </c>
+      <c r="AV28" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="74">
+        <v>0</v>
+      </c>
+      <c r="B29" s="99">
+        <v>1</v>
+      </c>
+      <c r="C29" s="99">
+        <v>2</v>
+      </c>
+      <c r="D29" s="78">
+        <v>3</v>
+      </c>
+      <c r="E29" s="99">
+        <v>4</v>
+      </c>
+      <c r="F29" s="78">
+        <v>5</v>
+      </c>
+      <c r="G29" s="99">
+        <v>6</v>
+      </c>
+      <c r="H29" s="99">
+        <v>7</v>
+      </c>
+      <c r="I29" s="99">
+        <v>8</v>
+      </c>
+      <c r="J29" s="99">
+        <v>9</v>
+      </c>
+      <c r="K29" s="74">
+        <v>10</v>
+      </c>
+      <c r="L29" s="100">
+        <v>11</v>
+      </c>
+      <c r="M29" s="98">
+        <v>0</v>
+      </c>
+      <c r="N29" s="74">
+        <v>1</v>
+      </c>
+      <c r="O29" s="99">
+        <v>2</v>
+      </c>
+      <c r="P29" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="99">
+        <v>4</v>
+      </c>
+      <c r="R29" s="99">
+        <v>5</v>
+      </c>
+      <c r="S29" s="99">
+        <v>6</v>
+      </c>
+      <c r="T29" s="99">
+        <v>7</v>
+      </c>
+      <c r="U29" s="99">
+        <v>8</v>
+      </c>
+      <c r="V29" s="99">
+        <v>9</v>
+      </c>
+      <c r="W29" s="99">
+        <v>10</v>
+      </c>
+      <c r="X29" s="74">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="99">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="99">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="99">
+        <v>6</v>
+      </c>
+      <c r="AF29" s="99">
+        <v>7</v>
+      </c>
+      <c r="AG29" s="99">
+        <v>8</v>
+      </c>
+      <c r="AH29" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI29" s="99">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="100">
+        <v>11</v>
+      </c>
+      <c r="AK29" s="98">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="58">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="99">
+        <v>3</v>
+      </c>
+      <c r="AO29" s="99">
+        <v>4</v>
+      </c>
+      <c r="AP29" s="99">
+        <v>5</v>
+      </c>
+      <c r="AQ29" s="74">
+        <v>6</v>
+      </c>
+      <c r="AR29" s="99">
+        <v>7</v>
+      </c>
+      <c r="AS29" s="99">
+        <v>8</v>
+      </c>
+      <c r="AT29" s="58">
+        <v>9</v>
+      </c>
+      <c r="AU29" s="74">
+        <v>10</v>
+      </c>
+      <c r="AV29" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="101">
+        <v>12</v>
+      </c>
+      <c r="B30" s="58">
+        <v>13</v>
+      </c>
+      <c r="C30" s="78">
+        <v>14</v>
+      </c>
+      <c r="D30" s="58">
+        <v>15</v>
+      </c>
+      <c r="E30" s="78">
+        <v>16</v>
+      </c>
+      <c r="F30" s="58">
+        <v>17</v>
+      </c>
+      <c r="G30" s="78">
+        <v>18</v>
+      </c>
+      <c r="H30" s="58">
+        <v>19</v>
+      </c>
+      <c r="I30" s="74">
+        <v>20</v>
+      </c>
+      <c r="J30" s="58">
+        <v>21</v>
+      </c>
+      <c r="K30" s="78">
+        <v>22</v>
+      </c>
+      <c r="L30" s="102">
+        <v>23</v>
+      </c>
+      <c r="M30" s="101">
+        <v>12</v>
+      </c>
+      <c r="N30" s="58">
+        <v>13</v>
+      </c>
+      <c r="O30" s="78">
+        <v>14</v>
+      </c>
+      <c r="P30" s="74">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="78">
+        <v>16</v>
+      </c>
+      <c r="R30" s="58">
+        <v>17</v>
+      </c>
+      <c r="S30" s="78">
+        <v>18</v>
+      </c>
+      <c r="T30" s="58">
+        <v>19</v>
+      </c>
+      <c r="U30" s="78">
+        <v>20</v>
+      </c>
+      <c r="V30" s="58">
+        <v>21</v>
+      </c>
+      <c r="W30" s="78">
+        <v>22</v>
+      </c>
+      <c r="X30" s="102">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="101">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="58">
+        <v>13</v>
+      </c>
+      <c r="AA30" s="78">
+        <v>14</v>
+      </c>
+      <c r="AB30" s="58">
+        <v>15</v>
+      </c>
+      <c r="AC30" s="78">
+        <v>16</v>
+      </c>
+      <c r="AD30" s="58">
+        <v>17</v>
+      </c>
+      <c r="AE30" s="78">
+        <v>18</v>
+      </c>
+      <c r="AF30" s="58">
+        <v>19</v>
+      </c>
+      <c r="AG30" s="78">
+        <v>20</v>
+      </c>
+      <c r="AH30" s="58">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="78">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="102">
+        <v>23</v>
+      </c>
+      <c r="AK30" s="101">
+        <v>12</v>
+      </c>
+      <c r="AL30" s="58">
+        <v>13</v>
+      </c>
+      <c r="AM30" s="78">
+        <v>14</v>
+      </c>
+      <c r="AN30" s="74">
+        <v>15</v>
+      </c>
+      <c r="AO30" s="78">
+        <v>16</v>
+      </c>
+      <c r="AP30" s="58">
+        <v>17</v>
+      </c>
+      <c r="AQ30" s="78">
+        <v>18</v>
+      </c>
+      <c r="AR30" s="58">
+        <v>19</v>
+      </c>
+      <c r="AS30" s="78">
+        <v>20</v>
+      </c>
+      <c r="AT30" s="58">
+        <v>21</v>
+      </c>
+      <c r="AU30" s="58">
+        <v>22</v>
+      </c>
+      <c r="AV30" s="102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="103">
+        <v>24</v>
+      </c>
+      <c r="B31" s="74">
+        <v>25</v>
+      </c>
+      <c r="C31" s="58">
+        <v>26</v>
+      </c>
+      <c r="D31" s="104">
+        <v>27</v>
+      </c>
+      <c r="E31" s="105">
+        <v>28</v>
+      </c>
+      <c r="F31" s="74">
+        <v>29</v>
+      </c>
+      <c r="G31" s="78">
+        <v>30</v>
+      </c>
+      <c r="H31" s="104">
+        <v>31</v>
+      </c>
+      <c r="I31" s="105">
+        <v>32</v>
+      </c>
+      <c r="J31" s="58">
+        <v>33</v>
+      </c>
+      <c r="K31" s="78">
+        <v>34</v>
+      </c>
+      <c r="L31" s="106">
+        <v>35</v>
+      </c>
+      <c r="M31" s="103">
+        <v>24</v>
+      </c>
+      <c r="N31" s="104">
+        <v>25</v>
+      </c>
+      <c r="O31" s="105">
+        <v>26</v>
+      </c>
+      <c r="P31" s="104">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="105">
+        <v>28</v>
+      </c>
+      <c r="R31" s="104">
+        <v>29</v>
+      </c>
+      <c r="S31" s="74">
+        <v>30</v>
+      </c>
+      <c r="T31" s="104">
+        <v>31</v>
+      </c>
+      <c r="U31" s="105">
+        <v>32</v>
+      </c>
+      <c r="V31" s="104">
+        <v>33</v>
+      </c>
+      <c r="W31" s="74">
+        <v>34</v>
+      </c>
+      <c r="X31" s="106">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="103">
+        <v>24</v>
+      </c>
+      <c r="Z31" s="104">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="105">
+        <v>26</v>
+      </c>
+      <c r="AB31" s="104">
+        <v>27</v>
+      </c>
+      <c r="AC31" s="105">
+        <v>28</v>
+      </c>
+      <c r="AD31" s="104">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="105">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="104">
+        <v>31</v>
+      </c>
+      <c r="AG31" s="105">
+        <v>32</v>
+      </c>
+      <c r="AH31" s="104">
+        <v>33</v>
+      </c>
+      <c r="AI31" s="105">
+        <v>34</v>
+      </c>
+      <c r="AJ31" s="106">
+        <v>35</v>
+      </c>
+      <c r="AK31" s="103">
+        <v>24</v>
+      </c>
+      <c r="AL31" s="74">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="105">
+        <v>26</v>
+      </c>
+      <c r="AN31" s="104">
+        <v>27</v>
+      </c>
+      <c r="AO31" s="105">
+        <v>28</v>
+      </c>
+      <c r="AP31" s="58">
+        <v>29</v>
+      </c>
+      <c r="AQ31" s="105">
+        <v>30</v>
+      </c>
+      <c r="AR31" s="104">
+        <v>31</v>
+      </c>
+      <c r="AS31" s="105">
+        <v>32</v>
+      </c>
+      <c r="AT31" s="104">
+        <v>33</v>
+      </c>
+      <c r="AU31" s="105">
+        <v>34</v>
+      </c>
+      <c r="AV31" s="74">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="Y1:AJ1"/>
+    <mergeCell ref="AK1:AV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9813F9-2233-4ED4-A56F-55CBC3A820FD}">
   <dimension ref="A1:AW32"/>
   <sheetViews>
@@ -2710,65 +7394,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="82" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="84"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="109"/>
     </row>
     <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>13</v>
       </c>
       <c r="B2" s="17"/>
@@ -2795,33 +7479,33 @@
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="95"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="121"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -2846,33 +7530,33 @@
       <c r="W3" s="16"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="98"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
+      <c r="AR3" s="123"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="124"/>
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -2897,33 +7581,33 @@
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
       <c r="Y4" s="24"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="101"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="126"/>
+      <c r="AU4" s="126"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="127"/>
     </row>
     <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>14</v>
       </c>
       <c r="B5" s="28"/>
@@ -2976,7 +7660,7 @@
       <c r="AW5" s="19"/>
     </row>
     <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3027,7 +7711,7 @@
       <c r="AW6" s="21"/>
     </row>
     <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23"/>
@@ -3078,7 +7762,7 @@
       <c r="AW7" s="24"/>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>14</v>
       </c>
       <c r="B8" s="17"/>
@@ -3131,7 +7815,7 @@
       <c r="AW8" s="19"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3182,7 +7866,7 @@
       <c r="AW9" s="21"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="22"/>
       <c r="C10" s="31"/>
       <c r="D10" s="23"/>
@@ -3233,7 +7917,7 @@
       <c r="AW10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>14</v>
       </c>
       <c r="B11" s="17"/>
@@ -3286,7 +7970,7 @@
       <c r="AW11" s="19"/>
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -3337,7 +8021,7 @@
       <c r="AW12" s="21"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -3388,7 +8072,7 @@
       <c r="AW13" s="24"/>
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>14</v>
       </c>
       <c r="B14" s="17"/>
@@ -3415,33 +8099,33 @@
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="95"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="121"/>
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="33"/>
@@ -3466,33 +8150,33 @@
       <c r="W15" s="33"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="97"/>
-      <c r="AW15" s="98"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="124"/>
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -3517,33 +8201,33 @@
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="100"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="100"/>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="100"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="100"/>
-      <c r="AU16" s="100"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="101"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="126"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
+      <c r="AW16" s="127"/>
     </row>
     <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="88">
+      <c r="A17" s="114">
         <v>15</v>
       </c>
       <c r="B17" s="17"/>
@@ -3596,7 +8280,7 @@
       <c r="AW17" s="19"/>
     </row>
     <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="89"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -3647,7 +8331,7 @@
       <c r="AW18" s="21"/>
     </row>
     <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="89"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
       <c r="D19" s="23"/>
@@ -3698,7 +8382,7 @@
       <c r="AW19" s="24"/>
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>15</v>
       </c>
       <c r="B20" s="17"/>
@@ -3751,7 +8435,7 @@
       <c r="AW20" s="19"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3802,7 +8486,7 @@
       <c r="AW21" s="21"/>
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -3853,7 +8537,7 @@
       <c r="AW22" s="24"/>
     </row>
     <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="89">
+      <c r="A23" s="115">
         <v>17</v>
       </c>
       <c r="B23" s="17"/>
@@ -3906,7 +8590,7 @@
       <c r="AW23" s="19"/>
     </row>
     <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="89"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="20"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16"/>
@@ -3957,7 +8641,7 @@
       <c r="AW24" s="21"/>
     </row>
     <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="89"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -4008,7 +8692,7 @@
       <c r="AW25" s="24"/>
     </row>
     <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="89">
+      <c r="A26" s="115">
         <v>17</v>
       </c>
       <c r="B26" s="17"/>
@@ -4061,7 +8745,7 @@
       <c r="AW26" s="19"/>
     </row>
     <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="89"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -4112,7 +8796,7 @@
       <c r="AW27" s="21"/>
     </row>
     <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="89"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -4163,7 +8847,7 @@
       <c r="AW28" s="24"/>
     </row>
     <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="89">
+      <c r="A29" s="115">
         <v>18</v>
       </c>
       <c r="B29" s="17"/>
@@ -4216,7 +8900,7 @@
       <c r="AW29" s="19"/>
     </row>
     <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="89"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -4267,7 +8951,7 @@
       <c r="AW30" s="21"/>
     </row>
     <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="89"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="22"/>
       <c r="C31" s="31"/>
       <c r="D31" s="23"/>
@@ -4342,7 +9026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7CB97-7895-44AC-A9C5-6657E6963264}">
   <dimension ref="A1:AW32"/>
   <sheetViews>
@@ -4362,65 +9046,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="82" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="84"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="109"/>
     </row>
     <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>13</v>
       </c>
       <c r="B2" s="17">
@@ -4495,33 +9179,33 @@
       <c r="Y2" s="19">
         <v>12</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="95"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="121"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -4594,33 +9278,33 @@
       <c r="Y3" s="21">
         <v>24</v>
       </c>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="98"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
+      <c r="AR3" s="123"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="124"/>
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -4693,33 +9377,33 @@
       <c r="Y4" s="24">
         <v>36</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="101"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="126"/>
+      <c r="AU4" s="126"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="127"/>
     </row>
     <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>14</v>
       </c>
       <c r="B5" s="28">
@@ -4868,7 +9552,7 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -5015,7 +9699,7 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -5162,7 +9846,7 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>14</v>
       </c>
       <c r="B8" s="17">
@@ -5311,7 +9995,7 @@
       </c>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -5458,7 +10142,7 @@
       </c>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="22">
         <v>25</v>
       </c>
@@ -5605,7 +10289,7 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>14</v>
       </c>
       <c r="B11" s="17">
@@ -5754,7 +10438,7 @@
       </c>
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -5901,7 +10585,7 @@
       </c>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -6048,7 +10732,7 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>14</v>
       </c>
       <c r="B14" s="17">
@@ -6123,35 +10807,35 @@
       <c r="Y14" s="19">
         <v>12</v>
       </c>
-      <c r="Z14" s="93">
+      <c r="Z14" s="119">
         <v>1</v>
       </c>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="95"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="121"/>
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -6224,33 +10908,33 @@
       <c r="Y15" s="21">
         <v>24</v>
       </c>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="97"/>
-      <c r="AW15" s="98"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="124"/>
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -6323,33 +11007,33 @@
       <c r="Y16" s="24">
         <v>36</v>
       </c>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="100"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="100"/>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="100"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="100"/>
-      <c r="AU16" s="100"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="101"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="126"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
+      <c r="AW16" s="127"/>
     </row>
     <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="88">
+      <c r="A17" s="114">
         <v>15</v>
       </c>
       <c r="B17" s="17">
@@ -6498,7 +11182,7 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="89"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -6645,7 +11329,7 @@
       </c>
     </row>
     <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="89"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -6792,7 +11476,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>15</v>
       </c>
       <c r="B20" s="17">
@@ -6941,7 +11625,7 @@
       </c>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -7088,7 +11772,7 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -7235,7 +11919,7 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="89">
+      <c r="A23" s="115">
         <v>17</v>
       </c>
       <c r="B23" s="17">
@@ -7384,7 +12068,7 @@
       </c>
     </row>
     <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="89"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -7531,7 +12215,7 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="89"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -7678,7 +12362,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="89">
+      <c r="A26" s="115">
         <v>17</v>
       </c>
       <c r="B26" s="17">
@@ -7827,7 +12511,7 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="89"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -7974,7 +12658,7 @@
       </c>
     </row>
     <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="89"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -8121,7 +12805,7 @@
       </c>
     </row>
     <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="89">
+      <c r="A29" s="115">
         <v>18</v>
       </c>
       <c r="B29" s="17">
@@ -8270,7 +12954,7 @@
       </c>
     </row>
     <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="89"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -8417,7 +13101,7 @@
       </c>
     </row>
     <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="89"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -8587,7 +13271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2221145-AAF8-456B-B26D-46BDC04FD163}">
   <dimension ref="A1:AV30"/>
   <sheetViews>
@@ -10127,23 +14811,23 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>8</v>
       </c>
       <c r="B2" s="17"/>
@@ -10160,7 +14844,7 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -10175,7 +14859,7 @@
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -10190,7 +14874,7 @@
       <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>8</v>
       </c>
       <c r="B5" s="28"/>
@@ -10206,7 +14890,7 @@
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -10220,7 +14904,7 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10235,7 +14919,7 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>8</v>
       </c>
       <c r="B8" s="17"/>
@@ -10252,7 +14936,7 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -10267,7 +14951,7 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
       <c r="E10" s="66"/>
@@ -10281,7 +14965,7 @@
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>8</v>
       </c>
       <c r="B11" s="17"/>
@@ -10298,7 +14982,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -10313,7 +14997,7 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22"/>
       <c r="C13" s="66"/>
       <c r="D13" s="23"/>
@@ -10328,7 +15012,7 @@
       <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>8</v>
       </c>
       <c r="B14" s="17"/>
@@ -10345,7 +15029,7 @@
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="58"/>
@@ -10360,7 +15044,7 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -10375,7 +15059,7 @@
       <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81">
+      <c r="A17" s="110">
         <v>8</v>
       </c>
       <c r="B17" s="17"/>
@@ -10392,7 +15076,7 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10407,7 +15091,7 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -10422,7 +15106,7 @@
       <c r="M19" s="72"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>8</v>
       </c>
       <c r="B20" s="61"/>
@@ -10439,7 +15123,7 @@
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -10454,7 +15138,7 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -10469,7 +15153,7 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81">
+      <c r="A23" s="110">
         <v>8</v>
       </c>
       <c r="B23" s="17"/>
@@ -10486,7 +15170,7 @@
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -10501,7 +15185,7 @@
       <c r="M24" s="60"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -10516,7 +15200,7 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="110">
         <v>8</v>
       </c>
       <c r="B26" s="17"/>
@@ -10533,7 +15217,7 @@
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -10548,7 +15232,7 @@
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="81"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -10563,7 +15247,7 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="110">
         <v>8</v>
       </c>
       <c r="B29" s="17"/>
@@ -10578,7 +15262,7 @@
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -10593,7 +15277,7 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="81"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -10646,23 +15330,23 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>8</v>
       </c>
       <c r="B2" s="17">
@@ -10703,7 +15387,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -10742,7 +15426,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -10781,7 +15465,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>8</v>
       </c>
       <c r="B5" s="28">
@@ -10822,7 +15506,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -10861,7 +15545,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -10900,7 +15584,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>8</v>
       </c>
       <c r="B8" s="17">
@@ -10941,7 +15625,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -10980,7 +15664,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="31">
         <v>25</v>
       </c>
@@ -11019,7 +15703,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>8</v>
       </c>
       <c r="B11" s="17">
@@ -11060,7 +15744,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -11099,7 +15783,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -11138,7 +15822,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>8</v>
       </c>
       <c r="B14" s="17">
@@ -11179,7 +15863,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -11218,7 +15902,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -11257,7 +15941,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81">
+      <c r="A17" s="110">
         <v>8</v>
       </c>
       <c r="B17" s="17">
@@ -11298,7 +15982,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -11337,7 +16021,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -11376,7 +16060,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>8</v>
       </c>
       <c r="B20" s="61">
@@ -11417,7 +16101,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -11456,7 +16140,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -11495,7 +16179,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81">
+      <c r="A23" s="110">
         <v>8</v>
       </c>
       <c r="B23" s="17">
@@ -11536,7 +16220,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -11575,7 +16259,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -11614,7 +16298,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="110">
         <v>8</v>
       </c>
       <c r="B26" s="17">
@@ -11655,7 +16339,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -11694,7 +16378,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="81"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -11733,7 +16417,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="110">
         <v>8</v>
       </c>
       <c r="B29" s="17">
@@ -11774,7 +16458,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -11813,7 +16497,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="81"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -11891,65 +16575,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="85" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="85" t="s">
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="87"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="113"/>
     </row>
     <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>18</v>
       </c>
       <c r="B2" s="17"/>
@@ -12002,7 +16686,7 @@
       <c r="AW2" s="48"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -12053,7 +16737,7 @@
       <c r="AW3" s="50"/>
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -12104,7 +16788,7 @@
       <c r="AW4" s="53"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>18</v>
       </c>
       <c r="B5" s="28"/>
@@ -12157,7 +16841,7 @@
       <c r="AW5" s="30"/>
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -12204,7 +16888,7 @@
       <c r="AW6" s="21"/>
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -12255,7 +16939,7 @@
       <c r="AW7" s="24"/>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>18</v>
       </c>
       <c r="B8" s="17"/>
@@ -12304,7 +16988,7 @@
       <c r="AW8" s="32"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -12355,7 +17039,7 @@
       <c r="AW9" s="21"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
       <c r="E10" s="31"/>
@@ -12402,7 +17086,7 @@
       <c r="AW10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>18</v>
       </c>
       <c r="B11" s="17"/>
@@ -12453,7 +17137,7 @@
       <c r="AW11" s="19"/>
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -12504,7 +17188,7 @@
       <c r="AW12" s="21"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -12553,7 +17237,7 @@
       <c r="AW13" s="45"/>
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>18</v>
       </c>
       <c r="B14" s="17"/>
@@ -12606,7 +17290,7 @@
       <c r="AW14" s="48"/>
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="33"/>
@@ -12657,7 +17341,7 @@
       <c r="AW15" s="50"/>
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -12708,7 +17392,7 @@
       <c r="AW16" s="53"/>
     </row>
     <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81">
+      <c r="A17" s="110">
         <v>18</v>
       </c>
       <c r="B17" s="17"/>
@@ -12761,7 +17445,7 @@
       <c r="AW17" s="30"/>
     </row>
     <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -12812,7 +17496,7 @@
       <c r="AW18" s="21"/>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -12863,7 +17547,7 @@
       <c r="AW19" s="24"/>
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>18</v>
       </c>
       <c r="B20" s="61"/>
@@ -12916,7 +17600,7 @@
       <c r="AW20" s="19"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -12967,7 +17651,7 @@
       <c r="AW21" s="21"/>
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -13015,10 +17699,10 @@
       <c r="AT22" s="23"/>
       <c r="AU22" s="23"/>
       <c r="AV22" s="31"/>
-      <c r="AW22" s="102"/>
+      <c r="AW22" s="81"/>
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81">
+      <c r="A23" s="110">
         <v>18</v>
       </c>
       <c r="B23" s="17"/>
@@ -13071,7 +17755,7 @@
       <c r="AW23" s="19"/>
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -13122,7 +17806,7 @@
       <c r="AW24" s="21"/>
     </row>
     <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -13173,7 +17857,7 @@
       <c r="AW25" s="24"/>
     </row>
     <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="110">
         <v>18</v>
       </c>
       <c r="B26" s="17"/>
@@ -13224,7 +17908,7 @@
       <c r="AW26" s="19"/>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -13275,7 +17959,7 @@
       <c r="AW27" s="21"/>
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="81"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="66"/>
@@ -13324,7 +18008,7 @@
       <c r="AW28" s="24"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="110">
         <v>18</v>
       </c>
       <c r="B29" s="17"/>
@@ -13375,7 +18059,7 @@
       <c r="AW29" s="19"/>
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -13426,7 +18110,7 @@
       <c r="AW30" s="21"/>
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="81"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -13520,65 +18204,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="85" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="85" t="s">
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="87"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="113"/>
     </row>
     <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+      <c r="A2" s="110">
         <v>18</v>
       </c>
       <c r="B2" s="17">
@@ -13727,7 +18411,7 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -13874,7 +18558,7 @@
       </c>
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -14021,7 +18705,7 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="81">
+      <c r="A5" s="110">
         <v>18</v>
       </c>
       <c r="B5" s="28">
@@ -14170,7 +18854,7 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -14317,7 +19001,7 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -14464,7 +19148,7 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81">
+      <c r="A8" s="110">
         <v>18</v>
       </c>
       <c r="B8" s="17">
@@ -14613,7 +19297,7 @@
       </c>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -14760,7 +19444,7 @@
       </c>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="31">
         <v>25</v>
       </c>
@@ -14907,7 +19591,7 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81">
+      <c r="A11" s="110">
         <v>18</v>
       </c>
       <c r="B11" s="17">
@@ -14982,81 +19666,81 @@
       <c r="Y11" s="19">
         <v>12</v>
       </c>
-      <c r="Z11" s="103">
+      <c r="Z11" s="82">
         <v>1</v>
       </c>
-      <c r="AA11" s="104">
+      <c r="AA11" s="83">
         <v>2</v>
       </c>
-      <c r="AB11" s="104">
+      <c r="AB11" s="83">
         <v>3</v>
       </c>
-      <c r="AC11" s="104">
+      <c r="AC11" s="83">
         <v>4</v>
       </c>
-      <c r="AD11" s="104">
+      <c r="AD11" s="83">
         <v>5</v>
       </c>
-      <c r="AE11" s="104">
+      <c r="AE11" s="83">
         <v>6</v>
       </c>
-      <c r="AF11" s="104">
+      <c r="AF11" s="83">
         <v>7</v>
       </c>
-      <c r="AG11" s="104">
+      <c r="AG11" s="83">
         <v>8</v>
       </c>
-      <c r="AH11" s="104">
+      <c r="AH11" s="83">
         <v>9</v>
       </c>
-      <c r="AI11" s="104">
+      <c r="AI11" s="83">
         <v>10</v>
       </c>
-      <c r="AJ11" s="104">
+      <c r="AJ11" s="83">
         <v>11</v>
       </c>
-      <c r="AK11" s="105">
+      <c r="AK11" s="84">
         <v>12</v>
       </c>
-      <c r="AL11" s="103">
+      <c r="AL11" s="82">
         <v>1</v>
       </c>
-      <c r="AM11" s="104">
+      <c r="AM11" s="83">
         <v>2</v>
       </c>
-      <c r="AN11" s="104">
+      <c r="AN11" s="83">
         <v>3</v>
       </c>
-      <c r="AO11" s="104">
+      <c r="AO11" s="83">
         <v>4</v>
       </c>
-      <c r="AP11" s="104">
+      <c r="AP11" s="83">
         <v>5</v>
       </c>
-      <c r="AQ11" s="104">
+      <c r="AQ11" s="83">
         <v>6</v>
       </c>
-      <c r="AR11" s="104">
+      <c r="AR11" s="83">
         <v>7</v>
       </c>
-      <c r="AS11" s="104">
+      <c r="AS11" s="83">
         <v>8</v>
       </c>
-      <c r="AT11" s="104">
+      <c r="AT11" s="83">
         <v>9</v>
       </c>
-      <c r="AU11" s="104">
+      <c r="AU11" s="83">
         <v>10</v>
       </c>
-      <c r="AV11" s="104">
+      <c r="AV11" s="83">
         <v>11</v>
       </c>
-      <c r="AW11" s="105">
+      <c r="AW11" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -15129,81 +19813,81 @@
       <c r="Y12" s="21">
         <v>24</v>
       </c>
-      <c r="Z12" s="106">
+      <c r="Z12" s="85">
         <v>13</v>
       </c>
-      <c r="AA12" s="107">
+      <c r="AA12" s="86">
         <v>14</v>
       </c>
-      <c r="AB12" s="107">
+      <c r="AB12" s="86">
         <v>15</v>
       </c>
-      <c r="AC12" s="107">
+      <c r="AC12" s="86">
         <v>16</v>
       </c>
-      <c r="AD12" s="107">
+      <c r="AD12" s="86">
         <v>17</v>
       </c>
-      <c r="AE12" s="107">
+      <c r="AE12" s="86">
         <v>18</v>
       </c>
-      <c r="AF12" s="107">
+      <c r="AF12" s="86">
         <v>19</v>
       </c>
-      <c r="AG12" s="107">
+      <c r="AG12" s="86">
         <v>20</v>
       </c>
-      <c r="AH12" s="107">
+      <c r="AH12" s="86">
         <v>21</v>
       </c>
-      <c r="AI12" s="107">
+      <c r="AI12" s="86">
         <v>22</v>
       </c>
-      <c r="AJ12" s="107">
+      <c r="AJ12" s="86">
         <v>23</v>
       </c>
-      <c r="AK12" s="108">
+      <c r="AK12" s="87">
         <v>24</v>
       </c>
-      <c r="AL12" s="106">
+      <c r="AL12" s="85">
         <v>13</v>
       </c>
-      <c r="AM12" s="107">
+      <c r="AM12" s="86">
         <v>14</v>
       </c>
-      <c r="AN12" s="107">
+      <c r="AN12" s="86">
         <v>15</v>
       </c>
-      <c r="AO12" s="107">
+      <c r="AO12" s="86">
         <v>16</v>
       </c>
-      <c r="AP12" s="107">
+      <c r="AP12" s="86">
         <v>17</v>
       </c>
-      <c r="AQ12" s="107">
+      <c r="AQ12" s="86">
         <v>18</v>
       </c>
-      <c r="AR12" s="107">
+      <c r="AR12" s="86">
         <v>19</v>
       </c>
-      <c r="AS12" s="107">
+      <c r="AS12" s="86">
         <v>20</v>
       </c>
-      <c r="AT12" s="107">
+      <c r="AT12" s="86">
         <v>21</v>
       </c>
-      <c r="AU12" s="107">
+      <c r="AU12" s="86">
         <v>22</v>
       </c>
-      <c r="AV12" s="107">
+      <c r="AV12" s="86">
         <v>23</v>
       </c>
-      <c r="AW12" s="108">
+      <c r="AW12" s="87">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -15276,81 +19960,81 @@
       <c r="Y13" s="24">
         <v>36</v>
       </c>
-      <c r="Z13" s="109">
+      <c r="Z13" s="88">
         <v>25</v>
       </c>
-      <c r="AA13" s="110">
+      <c r="AA13" s="89">
         <v>26</v>
       </c>
-      <c r="AB13" s="110">
+      <c r="AB13" s="89">
         <v>27</v>
       </c>
-      <c r="AC13" s="110">
+      <c r="AC13" s="89">
         <v>28</v>
       </c>
-      <c r="AD13" s="110">
+      <c r="AD13" s="89">
         <v>29</v>
       </c>
-      <c r="AE13" s="110">
+      <c r="AE13" s="89">
         <v>30</v>
       </c>
-      <c r="AF13" s="110">
+      <c r="AF13" s="89">
         <v>31</v>
       </c>
-      <c r="AG13" s="111">
+      <c r="AG13" s="90">
         <v>32</v>
       </c>
-      <c r="AH13" s="110">
+      <c r="AH13" s="89">
         <v>33</v>
       </c>
-      <c r="AI13" s="110">
+      <c r="AI13" s="89">
         <v>34</v>
       </c>
-      <c r="AJ13" s="110">
+      <c r="AJ13" s="89">
         <v>35</v>
       </c>
-      <c r="AK13" s="112">
+      <c r="AK13" s="91">
         <v>36</v>
       </c>
-      <c r="AL13" s="109">
+      <c r="AL13" s="88">
         <v>25</v>
       </c>
-      <c r="AM13" s="110">
+      <c r="AM13" s="89">
         <v>26</v>
       </c>
-      <c r="AN13" s="110">
+      <c r="AN13" s="89">
         <v>27</v>
       </c>
-      <c r="AO13" s="110">
+      <c r="AO13" s="89">
         <v>28</v>
       </c>
-      <c r="AP13" s="111">
+      <c r="AP13" s="90">
         <v>29</v>
       </c>
-      <c r="AQ13" s="110">
+      <c r="AQ13" s="89">
         <v>30</v>
       </c>
-      <c r="AR13" s="110">
+      <c r="AR13" s="89">
         <v>31</v>
       </c>
-      <c r="AS13" s="110">
+      <c r="AS13" s="89">
         <v>32</v>
       </c>
-      <c r="AT13" s="110">
+      <c r="AT13" s="89">
         <v>33</v>
       </c>
-      <c r="AU13" s="110">
+      <c r="AU13" s="89">
         <v>34</v>
       </c>
-      <c r="AV13" s="110">
+      <c r="AV13" s="89">
         <v>35</v>
       </c>
-      <c r="AW13" s="112">
+      <c r="AW13" s="91">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>18</v>
       </c>
       <c r="B14" s="17">
@@ -15499,7 +20183,7 @@
       </c>
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -15646,7 +20330,7 @@
       </c>
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -15793,7 +20477,7 @@
       </c>
     </row>
     <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81">
+      <c r="A17" s="110">
         <v>18</v>
       </c>
       <c r="B17" s="17">
@@ -15942,7 +20626,7 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -16089,7 +20773,7 @@
       </c>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -16236,7 +20920,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>18</v>
       </c>
       <c r="B20" s="61">
@@ -16275,40 +20959,40 @@
       <c r="M20" s="19">
         <v>12</v>
       </c>
-      <c r="N20" s="103">
+      <c r="N20" s="82">
         <v>1</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="83">
         <v>2</v>
       </c>
-      <c r="P20" s="104">
+      <c r="P20" s="83">
         <v>3</v>
       </c>
-      <c r="Q20" s="104">
+      <c r="Q20" s="83">
         <v>4</v>
       </c>
-      <c r="R20" s="104">
+      <c r="R20" s="83">
         <v>5</v>
       </c>
-      <c r="S20" s="104">
+      <c r="S20" s="83">
         <v>6</v>
       </c>
-      <c r="T20" s="104">
+      <c r="T20" s="83">
         <v>7</v>
       </c>
-      <c r="U20" s="104">
+      <c r="U20" s="83">
         <v>8</v>
       </c>
-      <c r="V20" s="104">
+      <c r="V20" s="83">
         <v>9</v>
       </c>
-      <c r="W20" s="104">
+      <c r="W20" s="83">
         <v>10</v>
       </c>
-      <c r="X20" s="104">
+      <c r="X20" s="83">
         <v>11</v>
       </c>
-      <c r="Y20" s="105">
+      <c r="Y20" s="84">
         <v>12</v>
       </c>
       <c r="Z20" s="17">
@@ -16347,45 +21031,45 @@
       <c r="AK20" s="19">
         <v>12</v>
       </c>
-      <c r="AL20" s="103">
+      <c r="AL20" s="82">
         <v>1</v>
       </c>
-      <c r="AM20" s="104">
+      <c r="AM20" s="83">
         <v>2</v>
       </c>
-      <c r="AN20" s="104">
+      <c r="AN20" s="83">
         <v>3</v>
       </c>
-      <c r="AO20" s="104">
+      <c r="AO20" s="83">
         <v>4</v>
       </c>
-      <c r="AP20" s="104">
+      <c r="AP20" s="83">
         <v>5</v>
       </c>
-      <c r="AQ20" s="104">
+      <c r="AQ20" s="83">
         <v>6</v>
       </c>
-      <c r="AR20" s="104">
+      <c r="AR20" s="83">
         <v>7</v>
       </c>
-      <c r="AS20" s="104">
+      <c r="AS20" s="83">
         <v>8</v>
       </c>
-      <c r="AT20" s="104">
+      <c r="AT20" s="83">
         <v>9</v>
       </c>
-      <c r="AU20" s="104">
+      <c r="AU20" s="83">
         <v>10</v>
       </c>
-      <c r="AV20" s="104">
+      <c r="AV20" s="83">
         <v>11</v>
       </c>
-      <c r="AW20" s="105">
+      <c r="AW20" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -16422,40 +21106,40 @@
       <c r="M21" s="21">
         <v>24</v>
       </c>
-      <c r="N21" s="106">
+      <c r="N21" s="85">
         <v>13</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="86">
         <v>14</v>
       </c>
-      <c r="P21" s="107">
+      <c r="P21" s="86">
         <v>15</v>
       </c>
-      <c r="Q21" s="107">
+      <c r="Q21" s="86">
         <v>16</v>
       </c>
-      <c r="R21" s="107">
+      <c r="R21" s="86">
         <v>17</v>
       </c>
-      <c r="S21" s="107">
+      <c r="S21" s="86">
         <v>18</v>
       </c>
-      <c r="T21" s="107">
+      <c r="T21" s="86">
         <v>19</v>
       </c>
-      <c r="U21" s="107">
+      <c r="U21" s="86">
         <v>20</v>
       </c>
-      <c r="V21" s="107">
+      <c r="V21" s="86">
         <v>21</v>
       </c>
-      <c r="W21" s="107">
+      <c r="W21" s="86">
         <v>22</v>
       </c>
-      <c r="X21" s="107">
+      <c r="X21" s="86">
         <v>23</v>
       </c>
-      <c r="Y21" s="108">
+      <c r="Y21" s="87">
         <v>24</v>
       </c>
       <c r="Z21" s="20">
@@ -16494,45 +21178,45 @@
       <c r="AK21" s="21">
         <v>24</v>
       </c>
-      <c r="AL21" s="106">
+      <c r="AL21" s="85">
         <v>13</v>
       </c>
-      <c r="AM21" s="107">
+      <c r="AM21" s="86">
         <v>14</v>
       </c>
-      <c r="AN21" s="107">
+      <c r="AN21" s="86">
         <v>15</v>
       </c>
-      <c r="AO21" s="107">
+      <c r="AO21" s="86">
         <v>16</v>
       </c>
-      <c r="AP21" s="107">
+      <c r="AP21" s="86">
         <v>17</v>
       </c>
-      <c r="AQ21" s="107">
+      <c r="AQ21" s="86">
         <v>18</v>
       </c>
-      <c r="AR21" s="107">
+      <c r="AR21" s="86">
         <v>19</v>
       </c>
-      <c r="AS21" s="107">
+      <c r="AS21" s="86">
         <v>20</v>
       </c>
-      <c r="AT21" s="107">
+      <c r="AT21" s="86">
         <v>21</v>
       </c>
-      <c r="AU21" s="107">
+      <c r="AU21" s="86">
         <v>22</v>
       </c>
-      <c r="AV21" s="107">
+      <c r="AV21" s="86">
         <v>23</v>
       </c>
-      <c r="AW21" s="108">
+      <c r="AW21" s="87">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -16569,40 +21253,40 @@
       <c r="M22" s="24">
         <v>36</v>
       </c>
-      <c r="N22" s="118">
+      <c r="N22" s="97">
         <v>25</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O22" s="95">
         <v>26</v>
       </c>
-      <c r="P22" s="116">
+      <c r="P22" s="95">
         <v>27</v>
       </c>
-      <c r="Q22" s="116">
+      <c r="Q22" s="95">
         <v>28</v>
       </c>
-      <c r="R22" s="116">
+      <c r="R22" s="95">
         <v>29</v>
       </c>
-      <c r="S22" s="116">
+      <c r="S22" s="95">
         <v>30</v>
       </c>
-      <c r="T22" s="116">
+      <c r="T22" s="95">
         <v>31</v>
       </c>
-      <c r="U22" s="116">
+      <c r="U22" s="95">
         <v>32</v>
       </c>
-      <c r="V22" s="116">
+      <c r="V22" s="95">
         <v>33</v>
       </c>
-      <c r="W22" s="116">
+      <c r="W22" s="95">
         <v>34</v>
       </c>
-      <c r="X22" s="116">
+      <c r="X22" s="95">
         <v>35</v>
       </c>
-      <c r="Y22" s="117">
+      <c r="Y22" s="96">
         <v>36</v>
       </c>
       <c r="Z22" s="65">
@@ -16641,45 +21325,45 @@
       <c r="AK22" s="24">
         <v>36</v>
       </c>
-      <c r="AL22" s="118">
+      <c r="AL22" s="97">
         <v>25</v>
       </c>
-      <c r="AM22" s="116">
+      <c r="AM22" s="95">
         <v>26</v>
       </c>
-      <c r="AN22" s="116">
+      <c r="AN22" s="95">
         <v>27</v>
       </c>
-      <c r="AO22" s="116">
+      <c r="AO22" s="95">
         <v>28</v>
       </c>
-      <c r="AP22" s="116">
+      <c r="AP22" s="95">
         <v>29</v>
       </c>
-      <c r="AQ22" s="116">
+      <c r="AQ22" s="95">
         <v>30</v>
       </c>
-      <c r="AR22" s="116">
+      <c r="AR22" s="95">
         <v>31</v>
       </c>
-      <c r="AS22" s="116">
+      <c r="AS22" s="95">
         <v>32</v>
       </c>
-      <c r="AT22" s="116">
+      <c r="AT22" s="95">
         <v>33</v>
       </c>
-      <c r="AU22" s="116">
+      <c r="AU22" s="95">
         <v>34</v>
       </c>
-      <c r="AV22" s="116">
+      <c r="AV22" s="95">
         <v>35</v>
       </c>
-      <c r="AW22" s="117">
+      <c r="AW22" s="96">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81">
+      <c r="A23" s="110">
         <v>18</v>
       </c>
       <c r="B23" s="17">
@@ -16754,81 +21438,81 @@
       <c r="Y23" s="19">
         <v>12</v>
       </c>
-      <c r="Z23" s="103">
+      <c r="Z23" s="82">
         <v>1</v>
       </c>
-      <c r="AA23" s="104">
+      <c r="AA23" s="83">
         <v>2</v>
       </c>
-      <c r="AB23" s="104">
+      <c r="AB23" s="83">
         <v>3</v>
       </c>
-      <c r="AC23" s="104">
+      <c r="AC23" s="83">
         <v>4</v>
       </c>
-      <c r="AD23" s="104">
+      <c r="AD23" s="83">
         <v>5</v>
       </c>
-      <c r="AE23" s="104">
+      <c r="AE23" s="83">
         <v>6</v>
       </c>
-      <c r="AF23" s="104">
+      <c r="AF23" s="83">
         <v>7</v>
       </c>
-      <c r="AG23" s="104">
+      <c r="AG23" s="83">
         <v>8</v>
       </c>
-      <c r="AH23" s="104">
+      <c r="AH23" s="83">
         <v>9</v>
       </c>
-      <c r="AI23" s="104">
+      <c r="AI23" s="83">
         <v>10</v>
       </c>
-      <c r="AJ23" s="104">
+      <c r="AJ23" s="83">
         <v>11</v>
       </c>
-      <c r="AK23" s="105">
+      <c r="AK23" s="84">
         <v>12</v>
       </c>
-      <c r="AL23" s="103">
+      <c r="AL23" s="82">
         <v>1</v>
       </c>
-      <c r="AM23" s="104">
+      <c r="AM23" s="83">
         <v>2</v>
       </c>
-      <c r="AN23" s="104">
+      <c r="AN23" s="83">
         <v>3</v>
       </c>
-      <c r="AO23" s="104">
+      <c r="AO23" s="83">
         <v>4</v>
       </c>
-      <c r="AP23" s="104">
+      <c r="AP23" s="83">
         <v>5</v>
       </c>
-      <c r="AQ23" s="104">
+      <c r="AQ23" s="83">
         <v>6</v>
       </c>
-      <c r="AR23" s="104">
+      <c r="AR23" s="83">
         <v>7</v>
       </c>
-      <c r="AS23" s="104">
+      <c r="AS23" s="83">
         <v>8</v>
       </c>
-      <c r="AT23" s="104">
+      <c r="AT23" s="83">
         <v>9</v>
       </c>
-      <c r="AU23" s="104">
+      <c r="AU23" s="83">
         <v>10</v>
       </c>
-      <c r="AV23" s="104">
+      <c r="AV23" s="83">
         <v>11</v>
       </c>
-      <c r="AW23" s="105">
+      <c r="AW23" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -16901,81 +21585,81 @@
       <c r="Y24" s="21">
         <v>24</v>
       </c>
-      <c r="Z24" s="106">
+      <c r="Z24" s="85">
         <v>13</v>
       </c>
-      <c r="AA24" s="107">
+      <c r="AA24" s="86">
         <v>14</v>
       </c>
-      <c r="AB24" s="107">
+      <c r="AB24" s="86">
         <v>15</v>
       </c>
-      <c r="AC24" s="107">
+      <c r="AC24" s="86">
         <v>16</v>
       </c>
-      <c r="AD24" s="107">
+      <c r="AD24" s="86">
         <v>17</v>
       </c>
-      <c r="AE24" s="107">
+      <c r="AE24" s="86">
         <v>18</v>
       </c>
-      <c r="AF24" s="107">
+      <c r="AF24" s="86">
         <v>19</v>
       </c>
-      <c r="AG24" s="107">
+      <c r="AG24" s="86">
         <v>20</v>
       </c>
-      <c r="AH24" s="107">
+      <c r="AH24" s="86">
         <v>21</v>
       </c>
-      <c r="AI24" s="107">
+      <c r="AI24" s="86">
         <v>22</v>
       </c>
-      <c r="AJ24" s="107">
+      <c r="AJ24" s="86">
         <v>23</v>
       </c>
-      <c r="AK24" s="108">
+      <c r="AK24" s="87">
         <v>24</v>
       </c>
-      <c r="AL24" s="106">
+      <c r="AL24" s="85">
         <v>13</v>
       </c>
-      <c r="AM24" s="107">
+      <c r="AM24" s="86">
         <v>14</v>
       </c>
-      <c r="AN24" s="107">
+      <c r="AN24" s="86">
         <v>15</v>
       </c>
-      <c r="AO24" s="107">
+      <c r="AO24" s="86">
         <v>16</v>
       </c>
-      <c r="AP24" s="107">
+      <c r="AP24" s="86">
         <v>17</v>
       </c>
-      <c r="AQ24" s="107">
+      <c r="AQ24" s="86">
         <v>18</v>
       </c>
-      <c r="AR24" s="107">
+      <c r="AR24" s="86">
         <v>19</v>
       </c>
-      <c r="AS24" s="107">
+      <c r="AS24" s="86">
         <v>20</v>
       </c>
-      <c r="AT24" s="107">
+      <c r="AT24" s="86">
         <v>21</v>
       </c>
-      <c r="AU24" s="107">
+      <c r="AU24" s="86">
         <v>22</v>
       </c>
-      <c r="AV24" s="107">
+      <c r="AV24" s="86">
         <v>23</v>
       </c>
-      <c r="AW24" s="108">
+      <c r="AW24" s="87">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -17048,81 +21732,81 @@
       <c r="Y25" s="24">
         <v>36</v>
       </c>
-      <c r="Z25" s="118">
+      <c r="Z25" s="97">
         <v>25</v>
       </c>
-      <c r="AA25" s="116">
+      <c r="AA25" s="95">
         <v>26</v>
       </c>
-      <c r="AB25" s="116">
+      <c r="AB25" s="95">
         <v>27</v>
       </c>
-      <c r="AC25" s="116">
+      <c r="AC25" s="95">
         <v>28</v>
       </c>
-      <c r="AD25" s="116">
+      <c r="AD25" s="95">
         <v>29</v>
       </c>
-      <c r="AE25" s="116">
+      <c r="AE25" s="95">
         <v>30</v>
       </c>
-      <c r="AF25" s="116">
+      <c r="AF25" s="95">
         <v>31</v>
       </c>
-      <c r="AG25" s="116">
+      <c r="AG25" s="95">
         <v>32</v>
       </c>
-      <c r="AH25" s="116">
+      <c r="AH25" s="95">
         <v>33</v>
       </c>
-      <c r="AI25" s="116">
+      <c r="AI25" s="95">
         <v>34</v>
       </c>
-      <c r="AJ25" s="116">
+      <c r="AJ25" s="95">
         <v>35</v>
       </c>
-      <c r="AK25" s="117">
+      <c r="AK25" s="96">
         <v>36</v>
       </c>
-      <c r="AL25" s="118">
+      <c r="AL25" s="97">
         <v>25</v>
       </c>
-      <c r="AM25" s="116">
+      <c r="AM25" s="95">
         <v>26</v>
       </c>
-      <c r="AN25" s="116">
+      <c r="AN25" s="95">
         <v>27</v>
       </c>
-      <c r="AO25" s="116">
+      <c r="AO25" s="95">
         <v>28</v>
       </c>
-      <c r="AP25" s="116">
+      <c r="AP25" s="95">
         <v>29</v>
       </c>
-      <c r="AQ25" s="116">
+      <c r="AQ25" s="95">
         <v>30</v>
       </c>
-      <c r="AR25" s="116">
+      <c r="AR25" s="95">
         <v>31</v>
       </c>
-      <c r="AS25" s="116">
+      <c r="AS25" s="95">
         <v>32</v>
       </c>
-      <c r="AT25" s="116">
+      <c r="AT25" s="95">
         <v>33</v>
       </c>
-      <c r="AU25" s="116">
+      <c r="AU25" s="95">
         <v>34</v>
       </c>
-      <c r="AV25" s="116">
+      <c r="AV25" s="95">
         <v>35</v>
       </c>
-      <c r="AW25" s="117">
+      <c r="AW25" s="96">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="110">
         <v>18</v>
       </c>
       <c r="B26" s="17">
@@ -17271,7 +21955,7 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -17418,7 +22102,7 @@
       </c>
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="81"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -17565,7 +22249,7 @@
       </c>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="110">
         <v>18</v>
       </c>
       <c r="B29" s="17">
@@ -17604,40 +22288,40 @@
       <c r="M29" s="19">
         <v>12</v>
       </c>
-      <c r="N29" s="113">
+      <c r="N29" s="92">
         <v>1</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="83">
         <v>2</v>
       </c>
-      <c r="P29" s="104">
+      <c r="P29" s="83">
         <v>3</v>
       </c>
-      <c r="Q29" s="104">
+      <c r="Q29" s="83">
         <v>4</v>
       </c>
-      <c r="R29" s="104">
+      <c r="R29" s="83">
         <v>5</v>
       </c>
-      <c r="S29" s="104">
+      <c r="S29" s="83">
         <v>6</v>
       </c>
-      <c r="T29" s="104">
+      <c r="T29" s="83">
         <v>7</v>
       </c>
-      <c r="U29" s="104">
+      <c r="U29" s="83">
         <v>8</v>
       </c>
-      <c r="V29" s="111">
+      <c r="V29" s="90">
         <v>9</v>
       </c>
-      <c r="W29" s="104">
+      <c r="W29" s="83">
         <v>10</v>
       </c>
-      <c r="X29" s="104">
+      <c r="X29" s="83">
         <v>11</v>
       </c>
-      <c r="Y29" s="105">
+      <c r="Y29" s="84">
         <v>12</v>
       </c>
       <c r="Z29" s="17">
@@ -17676,45 +22360,45 @@
       <c r="AK29" s="19">
         <v>12</v>
       </c>
-      <c r="AL29" s="103">
+      <c r="AL29" s="82">
         <v>1</v>
       </c>
-      <c r="AM29" s="104">
+      <c r="AM29" s="83">
         <v>2</v>
       </c>
-      <c r="AN29" s="104">
+      <c r="AN29" s="83">
         <v>3</v>
       </c>
-      <c r="AO29" s="104">
+      <c r="AO29" s="83">
         <v>4</v>
       </c>
-      <c r="AP29" s="104">
+      <c r="AP29" s="83">
         <v>5</v>
       </c>
-      <c r="AQ29" s="104">
+      <c r="AQ29" s="83">
         <v>6</v>
       </c>
-      <c r="AR29" s="104">
+      <c r="AR29" s="83">
         <v>7</v>
       </c>
-      <c r="AS29" s="104">
+      <c r="AS29" s="83">
         <v>8</v>
       </c>
-      <c r="AT29" s="104">
+      <c r="AT29" s="83">
         <v>9</v>
       </c>
-      <c r="AU29" s="104">
+      <c r="AU29" s="83">
         <v>10</v>
       </c>
-      <c r="AV29" s="104">
+      <c r="AV29" s="83">
         <v>11</v>
       </c>
-      <c r="AW29" s="105">
+      <c r="AW29" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -17751,40 +22435,40 @@
       <c r="M30" s="21">
         <v>24</v>
       </c>
-      <c r="N30" s="114">
+      <c r="N30" s="93">
         <v>13</v>
       </c>
-      <c r="O30" s="107">
+      <c r="O30" s="86">
         <v>14</v>
       </c>
-      <c r="P30" s="107">
+      <c r="P30" s="86">
         <v>15</v>
       </c>
-      <c r="Q30" s="107">
+      <c r="Q30" s="86">
         <v>16</v>
       </c>
-      <c r="R30" s="107">
+      <c r="R30" s="86">
         <v>17</v>
       </c>
-      <c r="S30" s="107">
+      <c r="S30" s="86">
         <v>18</v>
       </c>
-      <c r="T30" s="107">
+      <c r="T30" s="86">
         <v>19</v>
       </c>
-      <c r="U30" s="107">
+      <c r="U30" s="86">
         <v>20</v>
       </c>
-      <c r="V30" s="107">
+      <c r="V30" s="86">
         <v>21</v>
       </c>
-      <c r="W30" s="107">
+      <c r="W30" s="86">
         <v>22</v>
       </c>
-      <c r="X30" s="107">
+      <c r="X30" s="86">
         <v>23</v>
       </c>
-      <c r="Y30" s="108">
+      <c r="Y30" s="87">
         <v>24</v>
       </c>
       <c r="Z30" s="20">
@@ -17823,45 +22507,45 @@
       <c r="AK30" s="21">
         <v>24</v>
       </c>
-      <c r="AL30" s="106">
+      <c r="AL30" s="85">
         <v>13</v>
       </c>
-      <c r="AM30" s="107">
+      <c r="AM30" s="86">
         <v>14</v>
       </c>
-      <c r="AN30" s="107">
+      <c r="AN30" s="86">
         <v>15</v>
       </c>
-      <c r="AO30" s="107">
+      <c r="AO30" s="86">
         <v>16</v>
       </c>
-      <c r="AP30" s="107">
+      <c r="AP30" s="86">
         <v>17</v>
       </c>
-      <c r="AQ30" s="107">
+      <c r="AQ30" s="86">
         <v>18</v>
       </c>
-      <c r="AR30" s="107">
+      <c r="AR30" s="86">
         <v>19</v>
       </c>
-      <c r="AS30" s="107">
+      <c r="AS30" s="86">
         <v>20</v>
       </c>
-      <c r="AT30" s="107">
+      <c r="AT30" s="86">
         <v>21</v>
       </c>
-      <c r="AU30" s="107">
+      <c r="AU30" s="86">
         <v>22</v>
       </c>
-      <c r="AV30" s="107">
+      <c r="AV30" s="86">
         <v>23</v>
       </c>
-      <c r="AW30" s="108">
+      <c r="AW30" s="87">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="81"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -17898,40 +22582,40 @@
       <c r="M31" s="24">
         <v>36</v>
       </c>
-      <c r="N31" s="115">
+      <c r="N31" s="94">
         <v>25</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O31" s="95">
         <v>26</v>
       </c>
-      <c r="P31" s="116">
+      <c r="P31" s="95">
         <v>27</v>
       </c>
-      <c r="Q31" s="116">
+      <c r="Q31" s="95">
         <v>28</v>
       </c>
-      <c r="R31" s="116">
+      <c r="R31" s="95">
         <v>29</v>
       </c>
-      <c r="S31" s="116">
+      <c r="S31" s="95">
         <v>30</v>
       </c>
-      <c r="T31" s="116">
+      <c r="T31" s="95">
         <v>31</v>
       </c>
-      <c r="U31" s="116">
+      <c r="U31" s="95">
         <v>32</v>
       </c>
-      <c r="V31" s="116">
+      <c r="V31" s="95">
         <v>33</v>
       </c>
-      <c r="W31" s="116">
+      <c r="W31" s="95">
         <v>34</v>
       </c>
-      <c r="X31" s="116">
+      <c r="X31" s="95">
         <v>35</v>
       </c>
-      <c r="Y31" s="117">
+      <c r="Y31" s="96">
         <v>36</v>
       </c>
       <c r="Z31" s="22">
@@ -17970,40 +22654,40 @@
       <c r="AK31" s="24">
         <v>36</v>
       </c>
-      <c r="AL31" s="118">
+      <c r="AL31" s="97">
         <v>25</v>
       </c>
-      <c r="AM31" s="116">
+      <c r="AM31" s="95">
         <v>26</v>
       </c>
-      <c r="AN31" s="116">
+      <c r="AN31" s="95">
         <v>27</v>
       </c>
-      <c r="AO31" s="116">
+      <c r="AO31" s="95">
         <v>28</v>
       </c>
-      <c r="AP31" s="116">
+      <c r="AP31" s="95">
         <v>29</v>
       </c>
-      <c r="AQ31" s="116">
+      <c r="AQ31" s="95">
         <v>30</v>
       </c>
-      <c r="AR31" s="116">
+      <c r="AR31" s="95">
         <v>31</v>
       </c>
-      <c r="AS31" s="116">
+      <c r="AS31" s="95">
         <v>32</v>
       </c>
-      <c r="AT31" s="116">
+      <c r="AT31" s="95">
         <v>33</v>
       </c>
-      <c r="AU31" s="116">
+      <c r="AU31" s="95">
         <v>34</v>
       </c>
-      <c r="AV31" s="116">
+      <c r="AV31" s="95">
         <v>35</v>
       </c>
-      <c r="AW31" s="117">
+      <c r="AW31" s="96">
         <v>36</v>
       </c>
     </row>
@@ -19570,65 +24254,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="82" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="84"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="109"/>
     </row>
     <row r="2" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88">
+      <c r="A2" s="114">
         <v>15</v>
       </c>
       <c r="B2" s="17"/>
@@ -19681,7 +24365,7 @@
       <c r="AW2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="89"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -19732,7 +24416,7 @@
       <c r="AW3" s="21"/>
     </row>
     <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="89"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="22"/>
       <c r="C4" s="31"/>
       <c r="D4" s="23"/>
@@ -19783,7 +24467,7 @@
       <c r="AW4" s="24"/>
     </row>
     <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89">
+      <c r="A5" s="115">
         <v>17</v>
       </c>
       <c r="B5" s="17"/>
@@ -19836,7 +24520,7 @@
       <c r="AW5" s="19"/>
     </row>
     <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="89"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="20"/>
       <c r="C6" s="33"/>
       <c r="D6" s="16"/>
@@ -19887,7 +24571,7 @@
       <c r="AW6" s="21"/>
     </row>
     <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="89"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -19938,7 +24622,7 @@
       <c r="AW7" s="24"/>
     </row>
     <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="89">
+      <c r="A8" s="115">
         <v>17</v>
       </c>
       <c r="B8" s="17"/>
@@ -19991,7 +24675,7 @@
       <c r="AW8" s="19"/>
     </row>
     <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="89"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -20042,7 +24726,7 @@
       <c r="AW9" s="21"/>
     </row>
     <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="89"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="31"/>
@@ -20093,7 +24777,7 @@
       <c r="AW10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="89">
+      <c r="A11" s="115">
         <v>18</v>
       </c>
       <c r="B11" s="17"/>
@@ -20146,7 +24830,7 @@
       <c r="AW11" s="19"/>
     </row>
     <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="89"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -20197,7 +24881,7 @@
       <c r="AW12" s="21"/>
     </row>
     <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="89"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -20248,7 +24932,7 @@
       <c r="AW13" s="24"/>
     </row>
     <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81">
+      <c r="A14" s="110">
         <v>14</v>
       </c>
       <c r="B14" s="28"/>
@@ -20301,7 +24985,7 @@
       <c r="AW14" s="19"/>
     </row>
     <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -20352,7 +25036,7 @@
       <c r="AW15" s="21"/>
     </row>
     <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="22"/>
       <c r="C16" s="31"/>
       <c r="D16" s="23"/>
@@ -20403,7 +25087,7 @@
       <c r="AW16" s="24"/>
     </row>
     <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81">
+      <c r="A17" s="110">
         <v>14</v>
       </c>
       <c r="B17" s="17"/>
@@ -20456,7 +25140,7 @@
       <c r="AW17" s="19"/>
     </row>
     <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -20507,7 +25191,7 @@
       <c r="AW18" s="21"/>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
       <c r="D19" s="23"/>
@@ -20558,7 +25242,7 @@
       <c r="AW19" s="24"/>
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="81">
+      <c r="A20" s="110">
         <v>14</v>
       </c>
       <c r="B20" s="17"/>
@@ -20611,7 +25295,7 @@
       <c r="AW20" s="19"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -20662,7 +25346,7 @@
       <c r="AW21" s="21"/>
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="22"/>
       <c r="C22" s="31"/>
       <c r="D22" s="23"/>
@@ -20713,7 +25397,7 @@
       <c r="AW22" s="24"/>
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81">
+      <c r="A23" s="110">
         <v>14</v>
       </c>
       <c r="B23" s="17"/>
@@ -20766,7 +25450,7 @@
       <c r="AW23" s="19"/>
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="33"/>
@@ -20817,7 +25501,7 @@
       <c r="AW24" s="21"/>
     </row>
     <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -20868,7 +25552,7 @@
       <c r="AW25" s="24"/>
     </row>
     <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="110">
         <v>13</v>
       </c>
       <c r="B26" s="17"/>
@@ -20921,7 +25605,7 @@
       <c r="AW26" s="19"/>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20"/>
       <c r="C27" s="33"/>
       <c r="D27" s="16"/>
@@ -20972,7 +25656,7 @@
       <c r="AW27" s="21"/>
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="81"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -21023,7 +25707,7 @@
       <c r="AW28" s="24"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="110">
         <v>15</v>
       </c>
       <c r="B29" s="17"/>
@@ -21076,7 +25760,7 @@
       <c r="AW29" s="19"/>
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -21127,7 +25811,7 @@
       <c r="AW30" s="21"/>
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="81"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -21203,7 +25887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B10CB6-986B-470E-8071-0C4B74702F5A}">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -21218,65 +25902,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="82" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="84"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="109"/>
     </row>
     <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
+      <c r="A2" s="118"/>
       <c r="B2" s="73"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -21327,7 +26011,7 @@
       <c r="AW2" s="62"/>
     </row>
     <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="78"/>
       <c r="C3" s="58"/>
       <c r="D3" s="16"/>
@@ -21378,7 +26062,7 @@
       <c r="AW3" s="64"/>
     </row>
     <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="90"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="27"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -21429,7 +26113,7 @@
       <c r="AW4" s="72"/>
     </row>
     <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="90"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="75"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -21480,7 +26164,7 @@
       <c r="AW5" s="19"/>
     </row>
     <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="26"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -21531,7 +26215,7 @@
       <c r="AW6" s="21"/>
     </row>
     <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="90"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="27"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23"/>
@@ -21582,7 +26266,7 @@
       <c r="AW7" s="24"/>
     </row>
     <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -21633,7 +26317,7 @@
       <c r="AW8" s="62"/>
     </row>
     <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="74"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -21684,7 +26368,7 @@
       <c r="AW9" s="60"/>
     </row>
     <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="90"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="76"/>
       <c r="C10" s="66"/>
       <c r="D10" s="23"/>
@@ -21735,7 +26419,7 @@
       <c r="AW10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="90"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="25"/>
       <c r="C11" s="59"/>
       <c r="D11" s="18"/>
@@ -21784,7 +26468,7 @@
       <c r="AW11" s="19"/>
     </row>
     <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="90"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33"/>
       <c r="D12" s="16"/>
@@ -21835,7 +26519,7 @@
       <c r="AW12" s="21"/>
     </row>
     <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="90"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="27"/>
       <c r="C13" s="66"/>
       <c r="D13" s="23"/>
@@ -21885,7 +26569,7 @@
       <c r="AW13" s="24"/>
     </row>
     <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="90"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="25"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -21936,7 +26620,7 @@
       <c r="AW14" s="62"/>
     </row>
     <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="90"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="26"/>
       <c r="C15" s="33"/>
       <c r="E15" s="16"/>
@@ -21983,7 +26667,7 @@
       <c r="AW15" s="64"/>
     </row>
     <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="90"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="27"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -22034,7 +26718,7 @@
       <c r="AW16" s="67"/>
     </row>
     <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="90"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="25"/>
       <c r="C17" s="18"/>
       <c r="D17" s="59"/>
@@ -22085,7 +26769,7 @@
       <c r="AW17" s="70"/>
     </row>
     <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="90"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="26"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -22136,7 +26820,7 @@
       <c r="AW18" s="21"/>
     </row>
     <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="90"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="77"/>
       <c r="C19" s="66"/>
       <c r="D19" s="23"/>
@@ -22187,7 +26871,7 @@
       <c r="AW19" s="24"/>
     </row>
     <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="90"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="73"/>
       <c r="C20" s="59"/>
       <c r="D20" s="18"/>
@@ -22236,7 +26920,7 @@
       <c r="AW20" s="19"/>
     </row>
     <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="90"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="26"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -22287,7 +26971,7 @@
       <c r="AW21" s="21"/>
     </row>
     <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="90"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="27"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -22336,7 +27020,7 @@
       <c r="AW22" s="72"/>
     </row>
     <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="90"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="25"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -22387,7 +27071,7 @@
       <c r="AW23" s="19"/>
     </row>
     <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="90"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16"/>
@@ -22438,7 +27122,7 @@
       <c r="AW24" s="21"/>
     </row>
     <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="90"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="27"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -22489,7 +27173,7 @@
       <c r="AW25" s="24"/>
     </row>
     <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="90"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="25"/>
       <c r="C26" s="32"/>
       <c r="D26" s="18"/>
@@ -22540,7 +27224,7 @@
       <c r="AW26" s="19"/>
     </row>
     <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="90"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="26"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -22587,7 +27271,7 @@
       <c r="AW27" s="21"/>
     </row>
     <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="90"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="27"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -22638,7 +27322,7 @@
       <c r="AW28" s="24"/>
     </row>
     <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="25"/>
       <c r="C29" s="18"/>
       <c r="D29" s="32"/>
@@ -22686,7 +27370,7 @@
       <c r="AW29" s="19"/>
     </row>
     <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="90"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="26"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -22736,7 +27420,7 @@
       <c r="AW30" s="21"/>
     </row>
     <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="91"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="27"/>
       <c r="C31" s="31"/>
       <c r="D31" s="23"/>
@@ -22813,8 +27497,8 @@
   <dimension ref="A1:AW31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AW31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22827,65 +27511,65 @@
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="82" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="84"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="109"/>
     </row>
     <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92">
+      <c r="A2" s="118">
         <v>15</v>
       </c>
       <c r="B2" s="73">
@@ -23034,7 +27718,7 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="78">
         <v>13</v>
       </c>
@@ -23181,7 +27865,7 @@
       </c>
     </row>
     <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="90"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="27">
         <v>25</v>
       </c>
@@ -23328,7 +28012,7 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="90">
+      <c r="A5" s="116">
         <v>15</v>
       </c>
       <c r="B5" s="75">
@@ -23477,7 +28161,7 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="26">
         <v>13</v>
       </c>
@@ -23624,7 +28308,7 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="90"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="27">
         <v>25</v>
       </c>
@@ -23771,7 +28455,7 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="90">
+      <c r="A8" s="116">
         <v>15</v>
       </c>
       <c r="B8" s="25">
@@ -23920,7 +28604,7 @@
       </c>
     </row>
     <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="74">
         <v>13</v>
       </c>
@@ -24067,7 +28751,7 @@
       </c>
     </row>
     <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="90"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="76">
         <v>25</v>
       </c>
@@ -24214,7 +28898,7 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="90">
+      <c r="A11" s="116">
         <v>15</v>
       </c>
       <c r="B11" s="25">
@@ -24363,7 +29047,7 @@
       </c>
     </row>
     <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="90"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="26">
         <v>13</v>
       </c>
@@ -24510,7 +29194,7 @@
       </c>
     </row>
     <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="90"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="27">
         <v>25</v>
       </c>
@@ -24657,7 +29341,7 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="90">
+      <c r="A14" s="116">
         <v>15</v>
       </c>
       <c r="B14" s="25">
@@ -24806,7 +29490,7 @@
       </c>
     </row>
     <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="90"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="26">
         <v>13</v>
       </c>
@@ -24953,7 +29637,7 @@
       </c>
     </row>
     <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="90"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="27">
         <v>25</v>
       </c>
@@ -25100,7 +29784,7 @@
       </c>
     </row>
     <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="90">
+      <c r="A17" s="116">
         <v>15</v>
       </c>
       <c r="B17" s="25">
@@ -25249,7 +29933,7 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="90"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="26">
         <v>13</v>
       </c>
@@ -25396,7 +30080,7 @@
       </c>
     </row>
     <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="90"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="77">
         <v>25</v>
       </c>
@@ -25543,7 +30227,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="90">
+      <c r="A20" s="116">
         <v>15</v>
       </c>
       <c r="B20" s="73">
@@ -25692,7 +30376,7 @@
       </c>
     </row>
     <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="90"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="26">
         <v>13</v>
       </c>
@@ -25839,7 +30523,7 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="90"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="27">
         <v>25</v>
       </c>
@@ -25986,7 +30670,7 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="90">
+      <c r="A23" s="116">
         <v>15</v>
       </c>
       <c r="B23" s="25">
@@ -26135,7 +30819,7 @@
       </c>
     </row>
     <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="90"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="26">
         <v>13</v>
       </c>
@@ -26282,7 +30966,7 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="90"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="27">
         <v>25</v>
       </c>
@@ -26429,7 +31113,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="90">
+      <c r="A26" s="116">
         <v>15</v>
       </c>
       <c r="B26" s="25">
@@ -26578,7 +31262,7 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="90"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="26">
         <v>13</v>
       </c>
@@ -26725,7 +31409,7 @@
       </c>
     </row>
     <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="90"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="27">
         <v>25</v>
       </c>
@@ -26872,7 +31556,7 @@
       </c>
     </row>
     <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90">
+      <c r="A29" s="116">
         <v>15</v>
       </c>
       <c r="B29" s="25">
@@ -27021,7 +31705,7 @@
       </c>
     </row>
     <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="90"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -27168,7 +31852,7 @@
       </c>
     </row>
     <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="91"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="27">
         <v>25</v>
       </c>
